--- a/!parsed_items_100/1299/1299_299-400.xlsx
+++ b/!parsed_items_100/1299/1299_299-400.xlsx
@@ -639,28 +639,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Свечи эротик</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t xml:space="preserve">Массажная свеча Relaxing </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>id-21700-1299</t>
+          <t>id-23987-1299</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -671,17 +671,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>два свечи в металлическом футляре</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21700/21700_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21700/21700_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23987/23987_23987_650.jpg</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Весенняя роса (50 мл).  Натуральное массажное масло с феромонами Весенняя роса (50 мл). Модель: bmn-0045. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Райская Вишня (30 мл).  Массажная свеча Relaxing . Модель: bmn-0078. Россия.  Exciting Massage Candle Райская Вишня (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -691,29 +691,25 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Косметика, препараты</t>
         </is>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>50 мл</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W2" t="inlineStr"/>
@@ -739,7 +735,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>2*15 мл</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -759,7 +755,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -775,12 +771,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>id-21702-1299</t>
+          <t>id-24481-1299</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -796,12 +792,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21702/21702_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21702/21702_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24481/24481_1_650.jpg</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усили</t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом клубники в сливках прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (200 мл).  Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (200 мл). Модель: bmn-0085. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -823,17 +819,17 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>200</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>50 мл</t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W3" t="inlineStr"/>
@@ -879,7 +875,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Массажные средства эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -895,12 +891,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Натуральное массажное масло с</t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>id-21699-1299</t>
+          <t>id-24485-1299</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -916,12 +912,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21699/21699_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21699/21699_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24485/24485_1_650.jpg</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажное масло с феромонами и чувственными ароматами, усилит сексуальные переживания и подарит незабываемое наслаждение! Создано специально для интимного массажа, мягко стимулирует самые чувствительные участки тела Вашего партнера и служит идеальной прелюдией для самых изысканных эротических сценариев.Всего несколько его капель обеспечивают отзывчивость эрогенных зон и прекрасное скольжение, приглашая Вас окунуться в проникновенный мир любовных приключений.Прекрасно ухаживает за кожей, увлажняя ее, не оставляет ощущения липкости.Натуральные ингредиенты, входящие в его состав, бережно питают и восстанавливают вашу кожу, делая ее бархатистой, насыщая витаминами, в то время пока Вы наслаждаетесь страстными прикосновения Вашего партнера. Натуральное массажное масло с феромонами Смузи бум (50 мл).  Натуральное массажное масло с феромонами Смузи бум (50 мл). Модель: bmn-0050. Косметика, препараты. Смазки, косметика &gt; Массажные масла, cвечи, гели. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом клубники в сливках прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (100 мл). Модель: bmn-0086. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -943,13 +939,17 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W4" t="inlineStr"/>
@@ -995,28 +995,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча Relaxing </t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>id-23985-1299</t>
+          <t>id-24487-1299</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>два свечи в металлическом футляре</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23985/23985_23985_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24487/24487_1_650.jpg</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Янтарное Утро (30 мл).  Массажная свеча Relaxing . Модель: bmn-0072. Россия.  Exciting Massage Candle Янтарное Утро (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом молочного шоколада прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (100 мл). Модель: bmn-0088. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1047,25 +1047,29 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W5" t="inlineStr"/>
@@ -1091,7 +1095,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2*15 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
@@ -1111,28 +1115,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча Relaxing </t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>id-23986-1299</t>
+          <t>id-24483-1299</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -1143,17 +1147,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>два свечи в металлическом футляре</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23986/23986_23986_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24483/24483_1_650.jpg</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, ко</t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом молочного шоколада прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (200 мл).  Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (200 мл). Модель: bmn-0089. Секс-игрушки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1163,12 +1167,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R6" t="inlineStr"/>
@@ -1207,7 +1211,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2*15 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1227,28 +1231,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча Relaxing </t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>id-23990-1299</t>
+          <t>id-24484-1299</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -1259,17 +1263,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>два свечи в металлическом футляре</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23990/23990_23990_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24484/24484_1_650.jpg</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Смузи Бум (30 мл).  Массажная свеча Relaxing . Модель: bmn-0074. Россия.  Exciting Massage Candle Смузи Бум (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом соленой карамели прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (100 мл). Модель: bmn-0090. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1279,25 +1283,29 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
+          <t>100 мл</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>100 мл</t>
         </is>
       </c>
       <c r="W7" t="inlineStr"/>
@@ -1323,7 +1331,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2*15 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
@@ -1343,28 +1351,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Уходовые средства эротик</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>ДЖАГА ДЖАГА</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча Relaxing </t>
+          <t>Оральный интимный гель JUICY FRUIT со</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>id-25009-1299</t>
+          <t>id-24480-1299</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1375,17 +1383,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>два свечи в металлическом футляре</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25009/25009_25009_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24480/24480_1_650.jpg</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями.Аромат: Чайная роза. Это дорогой, роскошный, но очень элегантный и выдержанный аромат самой настоящей розы, распустившейся ранним утром, а на ее лепестках дрожат капельки росы. Насыщенная текстура дарит коже бархатистость и окутывает ее изысканным благоуханием. Сердечные ноты раскрывают очарование цветущей весны: юной, таинственной и бесконечно нежной, даря невероятно глубокое новое звучание, похожее на восхитительную сказку. Композиционный букет манит, легкие и непринужденные оттенки завораживают, создавая яркую и манящую ауру, способную довести до восхищения. Сюда же добавляется вдохновляющая свежесть и живительная, мягко звучащая прохлада, радующая своей легкостью, прозрачностью и чистотой. В шлейфе ароматов сплетение солнечных аккордов и лакомых ноток цветочного сердца подчеркивает всю чувственность аромата и придает глубину Вашим ощущениям. Массажная свеча Relaxing &amp; Exciting Massage Candle Весенняя Роса (30 мл).  Массажная свеча Relaxing . Модель: bmn-0076. Россия.  Exciting Massage Candle Весенняя Роса (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом соленой карамели прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (200 мл).  Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (200 мл). Модель: bmn-0091. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1395,25 +1403,29 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
+          <t>200 мл</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>200 мл</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1439,7 +1451,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2*15 мл</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
@@ -1459,67 +1471,79 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Свечи эротик</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Массажная свеча Relaxing </t>
+          <t>Женские трусики с вибрацией LOVER'S</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>id-23987-1299</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>id-70-1299</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>99999</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>два свечи в металлическом футляре</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23987/23987_23987_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/70/70_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/70/70_1_650.jpg</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это чувственная массажная свеча с феромонами из 100 % натуральных масел, которая настроит и подарит вам романтическую атмосферу. Идеально подходит для всех типов кожи и для всех частей тела. Погрузитесь в ощущение блаженства и расслабления.Способ применения: зажгите свечу и ваша комната наполнится афродизиаками и возбуждающим ароматом. Через 10 мин. погасите пламя, и нанесите теплое (но не горячее!) растаявшее масло на тело массажными движениями. Наслаждайтесь новыми интимными ощущениями. Массажная свеча Relaxing &amp; Exciting Massage Candle Райская Вишня (30 мл).  Массажная свеча Relaxing . Модель: bmn-0078. Россия.  Exciting Massage Candle Райская Вишня (30 мл). Цвет: для женщин и мужчин. Батареек нет в комплекте. Ретейлер: Wisteria. </t>
+          <t xml:space="preserve">Вибро-трусики Vibrating Lover's Thong With Stroker Beads для клитора. Вся вибрация передается через бусины, которые при надевании трусиков располагаются вокруг малых половых губ и клитора. Вибро-пулька работает от батареек типа таблетка, прилагающихся в комплекте. Женские трусики с вибрацией LOVER'S THONG.  Женские трусики с вибрацией LOVER'S THONG. Модель: calex-0060-25bxse. Секс-игрушки. Женские стимуляторы &gt; Вибромассажеры. Аксессуары, украшения для тела &gt; Аксессуары. Цвет: черный. Материал: пластик. LR 44 x 4 шт (в комплекте) В коробке запасной набор батареек (всего 8 шт)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Косметика, препараты</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr">
         <is>
@@ -1555,7 +1579,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2*15 мл</t>
+          <t>Трусики, вибро-пуля, набор батареек</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
@@ -1575,28 +1599,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Стимулирующие стринги с бусинами</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>id-24481-1299</t>
+          <t>id-5224-1299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1612,44 +1636,44 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24481/24481_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5224/5224_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5224/5224_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5224/5224_1_650.jpg</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом клубники в сливках прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (200 мл).  Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (200 мл). Модель: bmn-0085. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">.Стимулирующие стринги с бусинами LOVER'S THONG.  Стимулирующие стринги с бусинами LOVER'S THONG. Модель: calex-0060-35-3. Секс-игрушки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с белым. Материал: пластик, эластичные ремешки. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>пластик, эластичные ремешки</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -1695,13 +1719,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1711,12 +1735,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Анальный душ ULTIMATE DOUCHE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>id-24485-1299</t>
+          <t>id-5068-1299</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1732,51 +1756,61 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24485/24485_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5068/5068_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5068/5068_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5068/5068_1_650.jpg</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом клубники в сливках прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом клубники в сливках (100 мл). Модель: bmn-0086. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">.Анальный душ ULTIMATE DOUCHE.  Анальный душ ULTIMATE DOUCHE. Модель: calex-0374-00-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальный душ. Цвет: прозрачный. Материал: пластик. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>7</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
@@ -1795,7 +1829,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Резервуар для жидкости, 2 сменные насадки</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
@@ -1815,13 +1849,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1831,12 +1865,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Анальный бесшовный душ Missile</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>id-24487-1299</t>
+          <t>id-728-1299</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1852,57 +1886,67 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24487/24487_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/728/728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/728/728_1_650.jpg</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом молочного шоколада прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (100 мл). Модель: bmn-0088. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">.Анальный бесшовный душ Missile.  Анальный бесшовный душ Missile. Модель: calex-0377-10bxse. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальный душ. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>13.5</v>
+      </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.25</v>
+      </c>
       <c r="AH12" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -1935,13 +1979,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1951,12 +1995,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Анальная вибро-втулка на присоске Vibro</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>id-24483-1299</t>
+          <t>id-11367-1299</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1967,32 +2011,32 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Анальная вибро-втулка на присоске Vibro Play</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24483/24483_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/11367/11367_11367_650.jpg</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом молочного шоколада прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (200 мл).  Оральный интимный гель JUICY FRUIT со вкусом молочного шоколада (200 мл). Модель: bmn-0089. Секс-игрушки. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">.Анальная вибро-втулка на присоске Vibro Play.  Анальная вибро-втулка на присоске Vibro Play. Модель: calex-0390-14-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фиолетовый. ПВХ, пластикБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -2010,9 +2054,15 @@
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
@@ -2031,7 +2081,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> диаметр 1,7-3 см</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
@@ -2051,13 +2101,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2067,12 +2117,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Анальный розовый стимулятор Tush</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>id-24484-1299</t>
+          <t>id-75-1299</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2083,22 +2133,22 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Анальный розовый стимулятор Tush Trainer</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24484/24484_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/75/75_calex-0426-20cdse_650.jpg</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом соленой карамели прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (100 мл).  Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (100 мл). Модель: bmn-0090. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">.Анальный розовый стимулятор Tush Trainer.  Анальный розовый стимулятор Tush Trainer. Модель: calex-0426-20cdse. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: розовый. плотный гельБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2115,24 +2165,26 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>100 мл</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>100 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
+      <c r="Y14" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>8.5</v>
+      </c>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
@@ -2151,7 +2203,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> максимальный диаметр 4 см</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
@@ -2171,13 +2223,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Уходовые средства эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ДЖАГА ДЖАГА</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2187,12 +2239,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Оральный интимный гель JUICY FRUIT со</t>
+          <t>Мини-вибратор водонепроницаемый LULU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>id-24480-1299</t>
+          <t>id-5236-1299</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2208,57 +2260,67 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24480/24480_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5236/5236_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5236/5236_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5236/5236_1_650.jpg</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Интимный гель-лубрикант JUICY FRUIT со вкусом соленой карамели прекрасно увлажняет, тонизирует, стимулирует и обостряет чувствительность интимных мест. Подходит обоим партнерам. Оберегает от раздражения. Универсальный гель на водной основе можно использовать для различных прелюдий. Если у вас возникли трудности на пути преодоления определенного барьера, а также во избежание неудобства и неприятных ощущений мы создали маленькую сладкую хитрость, интимный гель JUICY FRUIT. Отлично подойдет для легкого массажа эрогенных зон.Натуральные вещества и экстракты, содержащиеся в геле, помогут нормализовать кровообращение, снять усталость, улучшить эмоциональный фон и почувствовать бодрость и прилив сил. Идеально увлажняет кожу интимных зон, повышая комфортность интимных отношений. Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (200 мл).  Оральный интимный гель JUICY FRUIT со вкусом соленой карамели (200 мл). Модель: bmn-0091. Косметика, препараты. Смазки, косметика &gt; Вагинальные смазки. Смазки, косметика &gt; Оральные смазки. Смазки, косметика &gt; Смазки для секс-игрушек. Батареек нет в комплекте. Бренд: ДЖАГА ДЖАГА. </t>
+          <t xml:space="preserve">.Мини-вибратор водонепроницаемый LULU.  Мини-вибратор водонепроницаемый LULU. Модель: calex-0489-10-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Женские стимуляторы &gt; Вибромассажеры. Цвет: белый. Материал: velvet пластик (бархатистая фактура). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>velvet пластик (бархатистая фактура)</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr">
         <is>
-          <t>200 мл</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>200 мл</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
+      <c r="Y15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1.815</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.65</v>
+      </c>
       <c r="AH15" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2291,28 +2353,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>BRAZZERS</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Двусторонний реалистичный гибкий фаллос</t>
+          <t>Вибратор водонепроницаемый Lulu</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>id-23852-1299</t>
+          <t>id-9988-1299</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -2328,32 +2390,32 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23852/23852_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23852/23852_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9988/9988_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9988/9988_1_650.jpg</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Идеальный фаллоимитатор для нескромных людей с фантазией!Как и все фаллосы от бренда Brazzers, он сделан из качественного материала. У него ярко выраженная головка и хорошо прорисованный ствол с жилками и складочками. Но его изюминка не в этом!Этот фаллос двойной. Это значит, что его можно использовать одновременно для вагинального и анального секса. Параметры позволяют. Или, например, использовать его вместе с партнёром или партнёршей.Отличный вариант для пары девушка+девушка, но подойдёт и классическому варианту мужчина+девушка. Экспериментируйте!.Двусторонний реалистичный гибкий фаллос Brazzers.  Двусторонний реалистичный гибкий фаллос Brazzers. Модель: braz-dws026. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Вибраторы и фаллоимитаторы &gt; Двойные. Цвет: телесный. Материал: TPR. Батареек нет в комплекте. Бренд: BRAZZERS. </t>
+          <t xml:space="preserve">.Вибратор водонепроницаемый Lulu.  Вибратор водонепроницаемый Lulu. Модель: calex-0489-20-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: розовый. Материал: velvet пластик (бархатистая поверхность). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>США</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>velvet пластик (бархатистая поверхность)</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -2371,23 +2433,23 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>55</v>
+        <v>13.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="n">
-        <v>3.85</v>
+        <v>1.705</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
@@ -2421,7 +2483,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -2437,12 +2499,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Стимулирующие стринги с бусинами</t>
+          <t>Мини-вибратор водонепроницаемый LULU</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>id-5224-1299</t>
+          <t>id-5062-1299</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -2458,12 +2520,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5224/5224_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5224/5224_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5224/5224_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5062/5062_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5062/5062_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5062/5062_1_650.jpg</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Стимулирующие стринги с бусинами LOVER'S THONG.  Стимулирующие стринги с бусинами LOVER'S THONG. Модель: calex-0060-35-3. Секс-игрушки. Аксессуары для игр &gt; Наборы и аксессуары. Цвет: черный с белым. Материал: пластик, эластичные ремешки. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Мини-вибратор водонепроницаемый LULU.  Мини-вибратор водонепроницаемый LULU. Модель: calex-0489-40-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: velvet пластик (бархатистая фактура). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2483,7 +2545,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>пластик, эластичные ремешки</t>
+          <t>velvet пластик (бархатистая фактура)</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
@@ -2500,15 +2562,25 @@
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
+      <c r="Y17" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15.5</v>
+      </c>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AF17" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.75</v>
+      </c>
       <c r="AH17" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2541,7 +2613,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -2557,12 +2629,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Анальный душ ULTIMATE DOUCHE</t>
+          <t>Универсальный вибратор Classic Chic 7</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>id-5068-1299</t>
+          <t>id-9990-1299</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2578,12 +2650,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5068/5068_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5068/5068_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5068/5068_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9990/9990_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9990/9990_1_650.jpg</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальный душ ULTIMATE DOUCHE.  Анальный душ ULTIMATE DOUCHE. Модель: calex-0374-00-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальный душ. Цвет: прозрачный. Материал: пластик. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Универсальный вибратор Classic Chic (7 режимов).  Универсальный вибратор Classic Chic (7 режимов). Модель: calex-0499-50-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: розовый. Материал: velvet пластик (бархатистая поверхность). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2603,7 +2675,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>пластик</t>
+          <t>velvet пластик (бархатистая поверхность)</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -2618,27 +2690,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W18" t="n">
-        <v>7</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.7</v>
-      </c>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>9.9</v>
+        <v>17.05</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
+      <c r="AF18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2.4</v>
+      </c>
       <c r="AH18" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -2651,7 +2723,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>Резервуар для жидкости, 2 сменные насадки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
@@ -2687,12 +2759,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Анальный бесшовный душ Missile</t>
+          <t>Тонкий вибратор из пластика TURBO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>id-728-1299</t>
+          <t>id-5647-1299</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -2708,12 +2780,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/728/728_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/728/728_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5647/5647_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5647/5647_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5647/5647_1_650.jpg</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальный бесшовный душ Missile.  Анальный бесшовный душ Missile. Модель: calex-0377-10bxse. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальный душ. Цвет: черный. Материал: ПВХ. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Тонкий вибратор из пластика TURBO GLIDER.  Тонкий вибратор из пластика TURBO GLIDER. Модель: calex-0561-04-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: вишневый. Материал: ABS пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2733,7 +2805,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>ПВХ</t>
+          <t>ABS пластик</t>
         </is>
       </c>
       <c r="S19" t="inlineStr"/>
@@ -2751,23 +2823,23 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>14.85</v>
+        <v>17.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="n">
-        <v>3.575</v>
+        <v>2.97</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
@@ -2801,7 +2873,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -2812,17 +2884,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Анальная вибро-втулка на присоске Vibro</t>
+          <t>Беспроводная фиолетовая бабочка Venus</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>id-11367-1299</t>
+          <t>id-195-1299</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -2833,17 +2905,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Анальная вибро-втулка на присоске Vibro Play</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/11367/11367_11367_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/195/195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/195/195_1_650.jpg</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальная вибро-втулка на присоске Vibro Play.  Анальная вибро-втулка на присоске Vibro Play. Модель: calex-0390-14-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фиолетовый. ПВХ, пластикБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Беспроводная фиолетовая бабочка Venus Butterfly.  Беспроводная фиолетовая бабочка Venus Butterfly. Модель: calex-0601-30bxse. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фиолетовый. Материал: мягкий TPR (термоэластопласт), пластик. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2861,7 +2933,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>мягкий TPR (термоэластопласт), пластик</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr">
         <is>
@@ -2874,17 +2950,15 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>10</v>
-      </c>
+      <c r="W20" t="n">
+        <v>9</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
@@ -2903,7 +2977,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 1,7-3 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -2923,7 +2997,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вакуумные помпы эротик</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -2934,17 +3008,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Анальный розовый стимулятор Tush</t>
+          <t>Вагинальная вибропомпа с проникновением</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>id-75-1299</t>
+          <t>id-9427-1299</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -2955,17 +3029,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Анальный розовый стимулятор Tush Trainer</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/75/75_calex-0426-20cdse_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9427/9427_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9427/9427_1_650.jpg</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Анальный розовый стимулятор Tush Trainer.  Анальный розовый стимулятор Tush Trainer. Модель: calex-0426-20cdse. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Цвет: розовый. плотный гельБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Вагинальная вибропомпа с проникновением Venus Butterfly Pump.  Вагинальная вибропомпа с проникновением Venus Butterfly Pump. Модель: calex-0622-04-3. Секс-игрушки. Вакуумные помпы &gt; Помпы женские. Цвет: розовый. Материал: TPR (термоэластопласт), ПВХ. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2975,15 +3049,19 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Стандартный</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>TPR (термоэластопласт), ПВХ</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr">
         <is>
@@ -2996,16 +3074,20 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>4</v>
+      </c>
+      <c r="X21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="Y21" t="n">
-        <v>9.35</v>
+        <v>9.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
@@ -3025,7 +3107,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> максимальный диаметр 4 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
@@ -3045,7 +3127,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -3056,17 +3138,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Мини-вибратор водонепроницаемый LULU</t>
+          <t>Стимулятор для женщин BUTTERFLY KISS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>id-5236-1299</t>
+          <t>id-5239-1299</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
@@ -3082,12 +3164,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5236/5236_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5236/5236_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5236/5236_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5239/5239_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5239/5239_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5239/5239_1_650.jpg</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мини-вибратор водонепроницаемый LULU.  Мини-вибратор водонепроницаемый LULU. Модель: calex-0489-10-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Женские стимуляторы &gt; Вибромассажеры. Цвет: белый. Материал: velvet пластик (бархатистая фактура). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Стимулятор для женщин BUTTERFLY KISS.  Стимулятор для женщин BUTTERFLY KISS. Модель: calex-0782-04-2. Секс-игрушки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: TPR (термоэластопласт), пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -3107,7 +3189,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>velvet пластик (бархатистая фактура)</t>
+          <t>TPR (термоэластопласт), пластик</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3125,23 +3207,23 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>16.5</v>
+        <v>20.57</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>18.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>15</v>
+        <v>18.7</v>
       </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="n">
-        <v>1.815</v>
+        <v>2.53</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
@@ -3175,7 +3257,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -3186,17 +3268,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Вибратор водонепроницаемый Lulu</t>
+          <t>Насадка на член и мошонку Ball Spreader</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>id-9988-1299</t>
+          <t>id-4712-1299</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3212,12 +3294,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/9988/9988_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9988/9988_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4712/4712_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4712/4712_1_650.jpg</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вибратор водонепроницаемый Lulu.  Вибратор водонепроницаемый Lulu. Модель: calex-0489-20-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: розовый. Материал: velvet пластик (бархатистая поверхность). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Насадка на член и мошонку Ball Spreader (large).  Насадка на член и мошонку Ball Spreader (large). Модель: calex-1412-02-3. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: искусственная кожа, каучук. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3227,17 +3309,17 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>velvet пластик (бархатистая поверхность)</t>
+          <t>искусственная кожа, каучук</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3254,24 +3336,18 @@
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="n">
-        <v>1.705</v>
+        <v>4.95</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
@@ -3316,17 +3392,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Мини-вибратор водонепроницаемый LULU</t>
+          <t>Латексный фаллос на голову Accommodator</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>id-5062-1299</t>
+          <t>id-12915-1299</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3342,12 +3418,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5062/5062_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5062/5062_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5062/5062_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12915/12915_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12915/12915_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12915/12915_4_650.jpg</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Мини-вибратор водонепроницаемый LULU.  Мини-вибратор водонепроницаемый LULU. Модель: calex-0489-40-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: velvet пластик (бархатистая фактура). Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Страпон для оральной стимуляции The Original Accommodator Latex Dong приведет в восторг даже опытных пользователей. Надежная фиксация позволят совместить проникновение с оральной стимуляцией клитора для нее или с оральной стимуляцией промежности для него.Латексный фаллос на голову Accommodator.  Латексный фаллос на голову Accommodator. Модель: calex-1514-01-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -3367,7 +3443,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>velvet пластик (бархатистая фактура)</t>
+          <t>латекс</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3385,23 +3461,23 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>17.05</v>
+        <v>14.85</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="n">
-        <v>1.925</v>
+        <v>3.96</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
@@ -3435,7 +3511,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Насадки на член</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -3446,17 +3522,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Универсальный вибратор Classic Chic 7</t>
+          <t>Удлиняющая и расширяющая насадка на</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>id-9990-1299</t>
+          <t>id-7547-1299</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -3472,12 +3548,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/9990/9990_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9990/9990_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7547/7547_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7547/7547_1_650.jpg</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Универсальный вибратор Classic Chic (7 режимов).  Универсальный вибратор Classic Chic (7 режимов). Модель: calex-0499-50-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: розовый. Материал: velvet пластик (бархатистая поверхность). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Удлиняющая и расширяющая насадка на пенис FUTUROTIC PENIS EXTENDER.  Удлиняющая и расширяющая насадка на пенис FUTUROTIC PENIS EXTENDER. Модель: calex-1626-03-3. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Увеличение пениса &gt; Удлиняющие насадки, пенисы для ношения. Цвет: коричневый. Материал: Futorotic (вторая кожа). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3497,7 +3573,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>velvet пластик (бархатистая поверхность)</t>
+          <t>Futorotic (вторая кожа)</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3515,24 +3591,20 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>17.05</v>
+        <v>14.85</v>
       </c>
       <c r="Z25" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>2.4</v>
-      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3565,7 +3637,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -3576,17 +3648,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Тонкий вибратор из пластика TURBO</t>
+          <t>Расширяющая насадка на член и мошонку</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>id-5647-1299</t>
+          <t>id-5252-1299</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3597,17 +3669,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>насадка, 2 вибро-пули, комплект батареек</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5647/5647_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5647/5647_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5647/5647_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5252/5252_5252_650.jpg</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Тонкий вибратор из пластика TURBO GLIDER.  Тонкий вибратор из пластика TURBO GLIDER. Модель: calex-0561-04-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: вишневый. Материал: ABS пластик. Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Расширяющая насадка на член и мошонку ENDLESS DESIRES.  Расширяющая насадка на член и мошонку ENDLESS DESIRES. Модель: calex-1632-00-3. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: прозрачный, серебряный. TPE (термоэластопласт), ABS пластикБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3625,11 +3697,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>ABS пластик</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr">
         <is>
@@ -3645,23 +3713,23 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>17.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="n">
-        <v>2.97</v>
+        <v>0.22</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
@@ -3675,7 +3743,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> внутр. диаметр кольца на мошонку 2,5 см</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
@@ -3695,7 +3763,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Мастурбаторы мужские</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -3706,17 +3774,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Беспроводная фиолетовая бабочка Venus</t>
+          <t>Прозрачная киска BEST BUY PUSSY</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>id-195-1299</t>
+          <t>id-241-1299</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3727,17 +3795,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Прозрачная киска BEST BUY PUSSY</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/195/195_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/195/195_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/241/241_241_650.jpg</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Беспроводная фиолетовая бабочка Venus Butterfly.  Беспроводная фиолетовая бабочка Venus Butterfly. Модель: calex-0601-30bxse. Секс-игрушки. Женские стимуляторы &gt; Клиторальные стимуляторы. Цвет: фиолетовый. Материал: мягкий TPR (термоэластопласт), пластик. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Маструбатор Basic Essentials Tight Pussy изготовлен из мягкого и ультра эластичного материала. Прозрачная цилиндрическая камера анатомически повторяет форму влагалища с гладкой, чувственной текстурой для интенсивного и умопомрачительного удовольствия от стимуляции. Легкий, эргономичный рукав комфортно охватывает эрегированный половой член и обеспечивает полное удовлетворение. Прозрачная киска BEST BUY PUSSY.  Прозрачная киска BEST BUY PUSSY. Модель: calex-1785-00bxse. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. нежный TPR (вторая кожа)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3755,11 +3823,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>мягкий TPR (термоэластопласт), пластик</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
@@ -3772,15 +3836,17 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W27" t="n">
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Z27" t="n">
         <v>9</v>
       </c>
-      <c r="X27" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="inlineStr"/>
@@ -3799,7 +3865,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> диаметр 3,5 см</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
@@ -3819,7 +3885,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Вакуумные помпы эротик</t>
+          <t>Вагинальные тренажеры</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -3830,17 +3896,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Вагинальная вибропомпа с проникновением</t>
+          <t>Стимулирующая насадка с внутренней</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>id-9427-1299</t>
+          <t>id-17923-1299</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3856,12 +3922,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/9427/9427_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9427/9427_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_7_650.jpg</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Вагинальная вибропомпа с проникновением Venus Butterfly Pump.  Вагинальная вибропомпа с проникновением Venus Butterfly Pump. Модель: calex-0622-04-3. Секс-игрушки. Вакуумные помпы &gt; Помпы женские. Цвет: розовый. Материал: TPR (термоэластопласт), ПВХ. Батареек нет в комплекте. AAA x 1 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Стимулирующая насадка с внутренней вибрацией Pleasure Cage.  Стимулирующая насадка с внутренней вибрацией Pleasure Cage. Модель: calex-1803-15-3. Секс-игрушки. Насадки и кольца &gt; С вибрацией, с ротацией. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: синий, серебряный. Материал: эластичный TPR, пластик. LR 44 x 3 шт (в комплекте) в комплекте запасной набор батареек (всего 6 шт))Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3881,7 +3947,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>TPR (термоэластопласт), ПВХ</t>
+          <t>эластичный TPR, пластик</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -3896,27 +3962,31 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="W28" t="n">
-        <v>4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>9.9</v>
+        <v>6.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>универсальный (растягивается)</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>универсальный (растягивается)</t>
+        </is>
+      </c>
       <c r="AH28" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -3929,7 +3999,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>насадка, вибро-пуля</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
@@ -3949,7 +4019,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Наборы игрушек для взрослых</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -3960,17 +4030,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Стимулятор для женщин BUTTERFLY KISS</t>
+          <t>Стимулирующее вибро-кольцо на пенис</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>id-5239-1299</t>
+          <t>id-7513-1299</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3981,17 +4051,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Насадка на пенис, 2 вибро-кольца</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5239/5239_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5239/5239_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/5239/5239_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7513/7513_7513_650.jpg</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Стимулятор для женщин BUTTERFLY KISS.  Стимулятор для женщин BUTTERFLY KISS. Модель: calex-0782-04-2. Секс-игрушки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Клиторально-вагинальные стимуляторы. Цвет: розовый. Материал: TPR (термоэластопласт), пластик. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Стимулирующее вибро-кольцо на пенис Rockin Robbit.  Стимулирующее вибро-кольцо на пенис Rockin Robbit. Модель: calex-1825-00-3. Секс-игрушки. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: белый перламутровый с серебряным. эластичный TPR (термоэластопласт), пластикБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4009,11 +4079,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>TPR (термоэластопласт), пластик</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
@@ -4029,23 +4095,23 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>20.57</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>18.7</v>
+        <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.7</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="n">
-        <v>2.53</v>
+        <v>3.3</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
@@ -4059,7 +4125,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve"> длина вибро-яйца 5,5 см</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -4079,7 +4145,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Зажимы для сосков</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -4090,21 +4156,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Насадка на член и мошонку Ball Spreader</t>
+          <t>Подвески для сосков с тремя черными</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>id-4712-1299</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>id-16368-1299</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>44-46</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>99999</v>
@@ -4116,12 +4190,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4712/4712_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4712/4712_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/16368/16368_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16368/16368_2_650.jpg</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Насадка на член и мошонку Ball Spreader (large).  Насадка на член и мошонку Ball Spreader (large). Модель: calex-1412-02-3. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: черный. Материал: искусственная кожа, каучук. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Подвески для сосков с тремя черными камнями Onyx.  Подвески для сосков с тремя черными камнями Onyx. Модель: calex-2616-10-2. БДСМ. Аксессуары, украшения для тела &gt; Бижутерия для груди. Красивая грудь &gt; Украшения. Красивая грудь &gt; Зажимы для сосков, стимуляторы. Цвет: серебряный с черным. Материал: силикон, оникс, металл. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -4131,17 +4205,17 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>искусственная кожа, каучук</t>
+          <t>силикон, оникс, металл</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -4165,12 +4239,8 @@
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4203,7 +4273,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Поводки эротик</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -4214,17 +4284,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Латексный фаллос на голову Accommodator</t>
+          <t>Лакированный ошейник с поводком и со</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>id-12915-1299</t>
+          <t>id-7524-1299</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -4240,12 +4310,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12915/12915_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12915/12915_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12915/12915_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7524/7524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7524/7524_1_650.jpg</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Страпон для оральной стимуляции The Original Accommodator Latex Dong приведет в восторг даже опытных пользователей. Надежная фиксация позволят совместить проникновение с оральной стимуляцией клитора для нее или с оральной стимуляцией промежности для него.Латексный фаллос на голову Accommodator.  Латексный фаллос на голову Accommodator. Модель: calex-1514-01-3. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Страпоны и фаллопротезы &gt; Страпоны. Страпоны и фаллопротезы &gt; Без вибрации. Цвет: телесный. Материал: латекс. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Лакированный ошейник с поводком и со стразами DIAMOND LEASH COLLAR SET.  Лакированный ошейник с поводком и со стразами DIAMOND LEASH COLLAR SET. Модель: calex-2656-80-3. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Наборы. Цвет: черный. Материал: искусственная кожа (лак). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -4265,7 +4335,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>латекс</t>
+          <t>искусственная кожа (лак)</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -4282,25 +4352,15 @@
       </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4313,7 +4373,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Поводок, ошейник</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -4333,28 +4393,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Насадки на член</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>высокое качество</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Удлиняющая и расширяющая насадка на</t>
+          <t>Перезаряжаемый вибромассажер в виде</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>id-7547-1299</t>
+          <t>id-27820-1299</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -4365,17 +4425,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>вибратор-помада, зарядное USB-устройство</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7547/7547_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7547/7547_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27820/27820_27820_650.jpg</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Удлиняющая и расширяющая насадка на пенис FUTUROTIC PENIS EXTENDER.  Удлиняющая и расширяющая насадка на пенис FUTUROTIC PENIS EXTENDER. Модель: calex-1626-03-3. Секс-игрушки. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; Без вибрации. Увеличение пениса &gt; Удлиняющие насадки, пенисы для ношения. Цвет: коричневый. Материал: Futorotic (вторая кожа). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Hide &amp; Play Rechargeable Lipstick  перезаряжаемый мульти скоростной миниатюрный вибромассажер, выполненный в виде помады. Корпус изготовлен из гладкого, не содержащего фталатов АБС-пластика, покрытого золотым полеуретановым покрытием, а головка выполнена из бархатистого силикона. Бесшумный двигатель вибратора обеспечивает 10 различных функций мощной вибрации, пульсации и эскалации.Компактность, удобство и нейтральная форма делают этот вибромассажер идеальным спутником везде, куда бы ты ни отправилась.Применение:Наклонный наконечник предназначен для точечной и клиторальной стимуляции.Игрушка имеет удобное управление одной кнопкой.Чтобы включить или выключить игрушку, необходимо нажать и в течение трех секунд удерживать кнопку питания. Вибромассажер заряжается через USB и может быть подключен практически в любом месте, просто подсоедините идущий в комплекте шнур к совместимому порту компьютера или USB-адаптера (приобретается отдельно), а противоположный конец со штекером к игрушке. Полная зарядка занимает 2 часа, ее достаточно для беспрерывной работы до 2 часов.Хранение:Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Перезаряжаемый вибромассажер в виде помады Hide &amp; Play Rechargeable Lipstick (10 режимов).  Перезаряжаемый вибромассажер в виде помады Hide . Модель: calex-2930-35-2. США-Китай.  Play Rechargeable Lipstick (10 режимов). Цвет: для женщин. ABS пластик, силиконБренд: Lasciva. </t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -4385,19 +4445,15 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Секс-игрушки</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Futorotic (вторая кожа)</t>
-        </is>
-      </c>
+          <t>Секс-игрушки</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr">
         <is>
@@ -4412,15 +4468,9 @@
       </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
@@ -4439,7 +4489,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>длина 7,5 см, ширина 2,2 см</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
@@ -4459,7 +4509,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -4470,17 +4520,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Расширяющая насадка на член и мошонку</t>
+          <t>Классический вибратор Classic Chik 7</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>id-5252-1299</t>
+          <t>id-9989-1299</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -4491,17 +4541,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>насадка, 2 вибро-пули, комплект батареек</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5252/5252_5252_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/9989/9989_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9989/9989_1_650.jpg</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Расширяющая насадка на член и мошонку ENDLESS DESIRES.  Расширяющая насадка на член и мошонку ENDLESS DESIRES. Модель: calex-1632-00-3. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Удлиняющие и расширяющие насадки. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: прозрачный, серебряный. TPE (термоэластопласт), ABS пластикБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Классический вибратор Classic Chik (7 режимов).  Классический вибратор Classic Chik (7 режимов). Модель: calex-3017-14-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: розовый. Материал: velvet пластик (бархатистая поверхность). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -4519,7 +4569,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>velvet пластик (бархатистая поверхность)</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
@@ -4535,23 +4589,23 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>7.7</v>
+        <v>16.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="n">
-        <v>0.22</v>
+        <v>2.75</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
@@ -4565,7 +4619,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> внутр. диаметр кольца на мошонку 2,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
@@ -4585,7 +4639,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Мастурбаторы мужские</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -4601,12 +4655,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Прозрачная киска BEST BUY PUSSY</t>
+          <t>Эрекционная и стимулирующая насадка на</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>id-241-1299</t>
+          <t>id-12634-1299</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -4617,17 +4671,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Прозрачная киска BEST BUY PUSSY</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/241/241_241_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12634/12634_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12634/12634_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12634/12634_3_650.jpg</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Маструбатор Basic Essentials Tight Pussy изготовлен из мягкого и ультра эластичного материала. Прозрачная цилиндрическая камера анатомически повторяет форму влагалища с гладкой, чувственной текстурой для интенсивного и умопомрачительного удовольствия от стимуляции. Легкий, эргономичный рукав комфортно охватывает эрегированный половой член и обеспечивает полное удовлетворение. Прозрачная киска BEST BUY PUSSY.  Прозрачная киска BEST BUY PUSSY. Модель: calex-1785-00bxse. Секс-игрушки. Мастурбаторы и вагины &gt; Мастурбаторы и оростимуляторы. Цвет: прозрачный. нежный TPR (вторая кожа)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Расширьте ваше интимное удовольствие эрекционным кольцом с Dr. Joel Kaplan Support Master Двойное удовольствие. Усилитель состоит из 3 податливых колец, которые удобно растягиваются вокруг мошонки и полового члена. Наденьте опорное кольцо на эрегированный пенис и предайтесь неограниченной интимной игре. Эрекционная и стимулирующая насадка на пенис Support Master.  Эрекционная и стимулирующая насадка на пенис Support Master. Модель: calex-5629-10-3. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: дымчатый. Материал: эластичный TPR (термоэластопласт). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4645,7 +4699,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>эластичный TPR (термоэластопласт)</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
@@ -4661,20 +4719,24 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="Z34" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
+      <c r="AF34" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>2.2</v>
+      </c>
       <c r="AH34" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -4687,7 +4749,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> диаметр 3,5 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
@@ -4718,17 +4780,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Стимулирующая насадка с внутренней</t>
+          <t>Стимулирующая насадка на пенис Triple</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>id-17923-1299</t>
+          <t>id-12661-1299</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -4744,12 +4806,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/17923/17923_7_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/12661/12661_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12661/12661_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12661/12661_3_650.jpg</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Стимулирующая насадка с внутренней вибрацией Pleasure Cage.  Стимулирующая насадка с внутренней вибрацией Pleasure Cage. Модель: calex-1803-15-3. Секс-игрушки. Насадки и кольца &gt; С вибрацией, с ротацией. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: синий, серебряный. Материал: эластичный TPR, пластик. LR 44 x 3 шт (в комплекте) в комплекте запасной набор батареек (всего 6 шт))Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Расширьте ваше интимное удовольствие со стимулирующей насадкой Triple Smooth. Насадка состоит из 4 податливых колец, которые удобно растягиваются вокруг мошонки и полового члена. Наденьте опорное кольцо на эрегированный пенис и предайтесь неограниченной интимной игре. Стимулирующая насадка на пенис Triple Smooth.  Стимулирующая насадка на пенис Triple Smooth. Модель: calex-5629-20-3. Секс-игрушки. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: дымчатый. Материал: эластичный TPR (термоэластопласт). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -4769,7 +4831,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>эластичный TPR, пластик</t>
+          <t>эластичный TPR (термоэластопласт)</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -4787,27 +4849,23 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>6.6</v>
+        <v>7.15</v>
       </c>
       <c r="Z35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr">
-        <is>
-          <t>универсальный (растягивается)</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>универсальный (растягивается)</t>
-        </is>
+      <c r="AF35" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>2.1</v>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
@@ -4821,7 +4879,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>насадка, вибро-пуля</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
@@ -4841,7 +4899,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -4852,17 +4910,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Стимулирующее вибро-кольцо на пенис</t>
+          <t>Набор анальных втулок Anal Trainer Kit</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>id-7513-1299</t>
+          <t>id-4897-1299</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -4873,17 +4931,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Насадка на пенис, 2 вибро-кольца</t>
+          <t xml:space="preserve"> длина мал. втул 10 см, диаметр 1-2,3 см</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7513/7513_7513_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/4897/4897_Три_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4897/4897_втулки_650.jpg</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Стимулирующее вибро-кольцо на пенис Rockin Robbit.  Стимулирующее вибро-кольцо на пенис Rockin Robbit. Модель: calex-1825-00-3. Секс-игрушки. Насадки и кольца &gt; С вибрацией, с ротацией. Цвет: белый перламутровый с серебряным. эластичный TPR (термоэластопласт), пластикБренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.Набор анальных втулок Anal Trainer Kit.  Набор анальных втулок Anal Trainer Kit. Модель: calex-6871-03-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Секс-наборы &gt; Набор анальных втулок. Цвет: черный. Материал: 2 1. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4901,7 +4959,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>2 1</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
@@ -4917,23 +4979,23 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>11</v>
+        <v>15.95</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="n">
-        <v>3.3</v>
+        <v>3.685</v>
       </c>
       <c r="AG36" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
@@ -4947,7 +5009,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина вибро-яйца 5,5 см</t>
+          <t xml:space="preserve"> длина сред. втул. 11,5 см, диаметр 1,5-3 см</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -4967,7 +5029,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Зажимы для сосков</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -4983,24 +5045,16 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Подвески для сосков с тремя черными</t>
+          <t>Гибкий фаллос на присоске Back End</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>id-16368-1299</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-26319-1299</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>99999</v>
@@ -5012,12 +5066,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/16368/16368_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/16368/16368_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_8_650.jpg</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Подвески для сосков с тремя черными камнями Onyx.  Подвески для сосков с тремя черными камнями Onyx. Модель: calex-2616-10-2. БДСМ. Аксессуары, украшения для тела &gt; Бижутерия для груди. Красивая грудь &gt; Украшения. Красивая грудь &gt; Зажимы для сосков, стимуляторы. Цвет: серебряный с черным. Материал: силикон, оникс, металл. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Back End Chubby был создан для всех, кто ищет чувственно-реалистичный опыт наслаждения, от застенчивого новичка до эротического эксперта. Реалистичный член изготовлен из гибкого материала с основанием на присоске для чувственно реалистичной стимуляции. Гибкий, но жесткий ствол. Удобное и прочное крепление основания. Гибкий фаллос на присоске Back End Chubby.  Гибкий фаллос на присоске Back End Chubby. Модель: calex-SE-0408-10-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: черный. Материал: ПВХ (поливинилхлорид). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -5037,7 +5091,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>силикон, оникс, металл</t>
+          <t>ПВХ (поливинилхлорид)</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -5054,15 +5108,25 @@
       </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>14</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
+      <c r="AF37" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="AH37" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5095,7 +5159,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Поводки эротик</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -5106,17 +5170,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Лакированный ошейник с поводком и со</t>
+          <t>Анальная пробка Silicone Tee Probe</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>id-7524-1299</t>
+          <t>id-26183-1299</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -5132,12 +5196,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7524/7524_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7524/7524_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26183/26183_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26183/26183_2_650.jpg</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Лакированный ошейник с поводком и со стразами DIAMOND LEASH COLLAR SET.  Лакированный ошейник с поводком и со стразами DIAMOND LEASH COLLAR SET. Модель: calex-2656-80-3. БДСМ. БДСМ товары и фетиш &gt; Ошейники, поводки. БДСМ товары и фетиш &gt; Наборы. Цвет: черный. Материал: искусственная кожа (лак). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Придерживайтесь того, что вы знаете, с силиконовым стимулятором CalExotics Silicone Tee Probe. Анальный зонд имеет традиционную форму буквы Т - если вы знакомы с пробками, то вы точно поймете, что мы имеем в виду. Если вы новичок в мире анального секса, то Т означает форму зонда, в который вводится ствол, а крестовина служит прочным основанием для безопасной игры. Независимо от степени вашей подготовки, эта анальная пробка обеспечит вам мягкое, гладкое, податливое удовольствие благодаря тонкому силиконовому дизайну. Пробку можно держать самостоятельно или с партнером, используя удобное основание, что позволяет легко контролировать введение и извлечение.Это отличное устройство для одиночек и пар, желающих познакомиться с миром анального секса. Благодаря простому дизайну в использовании этой игрушки для взрослых нет ничего сложного - просто нанесите смазку и вперед! Силиконовый тройник CalExotics Silicone Tee Probe длиной 10,8 см и шириной 2 см удобен в использовании как для новичков, так и для экспертов. Используйте его вместе с одним из наших многочисленных лубрикантов на водной основе для усиления ощущений. Анальная пробка Silicone Tee Probe фиолетовая.  Анальная пробка Silicone Tee Probe фиолетовая. Модель: calex-SE-0418-14-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фиолетовый. Материал: бархатистый силикон. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -5157,7 +5221,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>искусственная кожа (лак)</t>
+          <t>бархатистый силикон</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -5174,15 +5238,25 @@
       </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
+      <c r="Y38" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>11</v>
+      </c>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AF38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
       <c r="AH38" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5195,7 +5269,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>Поводок, ошейник</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
@@ -5221,22 +5295,22 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wisteria</t>
+          <t>CALIFORNIA EXOTIC NOVELTIES</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>высокое качество</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Перезаряжаемый вибромассажер в виде</t>
+          <t>ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>id-27820-1299</t>
+          <t>id-27724-1299</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -5247,17 +5321,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>вибратор-помада, зарядное USB-устройство</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27820/27820_27820_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27724/27724_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27724/27724_2_650.jpg</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hide &amp; Play Rechargeable Lipstick  перезаряжаемый мульти скоростной миниатюрный вибромассажер, выполненный в виде помады. Корпус изготовлен из гладкого, не содержащего фталатов АБС-пластика, покрытого золотым полеуретановым покрытием, а головка выполнена из бархатистого силикона. Бесшумный двигатель вибратора обеспечивает 10 различных функций мощной вибрации, пульсации и эскалации.Компактность, удобство и нейтральная форма делают этот вибромассажер идеальным спутником везде, куда бы ты ни отправилась.Применение:Наклонный наконечник предназначен для точечной и клиторальной стимуляции.Игрушка имеет удобное управление одной кнопкой.Чтобы включить или выключить игрушку, необходимо нажать и в течение трех секунд удерживать кнопку питания. Вибромассажер заряжается через USB и может быть подключен практически в любом месте, просто подсоедините идущий в комплекте шнур к совместимому порту компьютера или USB-адаптера (приобретается отдельно), а противоположный конец со штекером к игрушке. Полная зарядка занимает 2 часа, ее достаточно для беспрерывной работы до 2 часов.Хранение:Очищать игрушку желательно до и после использования. Можно помыть в теплой воде с мылом или воспользоваться специализированным чистящим средством. Перед хранением вибромассажер необходимо хорошо просушить. Желательно хранить отдельно от других силиконовых изделий. Перезаряжаемый вибромассажер в виде помады Hide &amp; Play Rechargeable Lipstick (10 режимов).  Перезаряжаемый вибромассажер в виде помады Hide . Модель: calex-2930-35-2. США-Китай.  Play Rechargeable Lipstick (10 режимов). Цвет: для женщин. ABS пластик, силиконРетейлер: Wisteria. </t>
+          <t xml:space="preserve">Мини-вибратор California Exotics с различными скоростями вибрации, с изогнутой головкой для стимуляции именно точки G!.ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PINK.  ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PINK. Модель: calex-SE-0543-40-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: ABS Plastic. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -5267,15 +5341,19 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Секс-игрушки</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
+          <t>Высокое качество</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>ABS Plastic</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr">
         <is>
@@ -5290,15 +5368,25 @@
       </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
+      <c r="Y39" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>11.5</v>
+      </c>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
+      <c r="AF39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>4</v>
+      </c>
       <c r="AH39" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5311,7 +5399,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>длина 7,5 см, ширина 2,2 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
@@ -5331,7 +5419,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -5342,17 +5430,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Классический вибратор Classic Chik 7</t>
+          <t>ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>id-9989-1299</t>
+          <t>id-27723-1299</t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -5368,12 +5456,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/9989/9989_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/9989/9989_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27723/27723_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27723/27723_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27723/27723_3_650.jpg</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Классический вибратор Classic Chik (7 режимов).  Классический вибратор Classic Chik (7 режимов). Модель: calex-3017-14-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Анальные. Цвет: розовый. Материал: velvet пластик (бархатистая поверхность). Батареек нет в комплекте. AA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Мини-вибратор California Exotics с различными скоростями вибрации, с изогнутой головкой для стимуляции именно точки G!.ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PURPLE.  ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PURPLE. Модель: calex-SE-0543-45-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вибромассажеры. Цвет: фиолетовый. Материал: ABS Plastic. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -5393,7 +5481,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>velvet пластик (бархатистая поверхность)</t>
+          <t>ABS Plastic</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -5411,23 +5499,23 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="n">
-        <v>16.5</v>
+        <v>12.65</v>
       </c>
       <c r="Z40" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
@@ -5461,7 +5549,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Вибраторы</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -5472,17 +5560,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Эрекционная и стимулирующая насадка на</t>
+          <t>Миниатюрный вибратор в форме ложки для</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>id-12634-1299</t>
+          <t>id-26198-1299</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -5498,12 +5586,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12634/12634_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12634/12634_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12634/12634_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_4_650.jpg</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Расширьте ваше интимное удовольствие эрекционным кольцом с Dr. Joel Kaplan Support Master Двойное удовольствие. Усилитель состоит из 3 податливых колец, которые удобно растягиваются вокруг мошонки и полового члена. Наденьте опорное кольцо на эрегированный пенис и предайтесь неограниченной интимной игре. Эрекционная и стимулирующая насадка на пенис Support Master.  Эрекционная и стимулирующая насадка на пенис Support Master. Модель: calex-5629-10-3. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: дымчатый. Материал: эластичный TPR (термоэластопласт). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Хотите получить больше удовольствия за свои деньги? Теперь это возможно с Clitoriffic Vibe от CalExotics. Этот уникальный вибратор в форме ложки имеет все необходимое, чтобы вывести удовольствие на новый уровень - приготовьтесь к умопомрачительным оргазмам с этой секс-игрушкой. Вибратор имеет уникальный наконечник в форме лопатки, чтобы вы могли обеспечить максимальный контакт со всеми вашими самыми чувствительными зонами. Специально разработанный наконечник означает, что вы можете сосредоточить все свое внимание на клиторе, независимо от того, играете ли вы с этой игрушкой для взрослых в одиночку или с партнером.  Держите его всегда при себе для тех моментов, когда вы просто не можете сдержать себя и нуждаетесь в оргазме на ходу! Длина 16,5 см и ширина 2,5 см - это идеальная карманная ракета, которая подарит вам самые взрывные оргазмы. Многоскоростной массажер с металлическим покрытием, выполненный в чувственно гладком цвете, готов и ждет, чтобы заставить ваше сердце биться снова и снова. Мы рекомендуем использовать Clitoriffic Vibe с лубрикантом на водной основе для достижения максимального удовольствия. Миниатюрный вибратор в форме ложки для клитора Clitoriffic.  Миниатюрный вибратор в форме ложки для клитора Clitoriffic. Модель: calex-SE-0550-14-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый. Материал: ABS пластик, металл. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -5523,7 +5611,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>эластичный TPR (термоэластопласт)</t>
+          <t>ABS пластик, металл</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -5541,23 +5629,23 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="n">
-        <v>4.95</v>
+        <v>18.15</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="AG41" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="AH41" t="inlineStr">
         <is>
@@ -5591,7 +5679,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Вагинальные тренажеры</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -5602,17 +5690,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Стимулирующая насадка на пенис Triple</t>
+          <t>Коралловый анальный вибратор Vibrating</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>id-12661-1299</t>
+          <t>id-26049-1299</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -5628,12 +5716,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/12661/12661_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12661/12661_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/12661/12661_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_4_650.jpg</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Расширьте ваше интимное удовольствие со стимулирующей насадкой Triple Smooth. Насадка состоит из 4 податливых колец, которые удобно растягиваются вокруг мошонки и полового члена. Наденьте опорное кольцо на эрегированный пенис и предайтесь неограниченной интимной игре. Стимулирующая насадка на пенис Triple Smooth.  Стимулирующая насадка на пенис Triple Smooth. Модель: calex-5629-20-3. Секс-игрушки. Насадки и кольца &gt; Без вибрации. Насадки и кольца &gt; Стимулирующие влагалище. Цвет: дымчатый. Материал: эластичный TPR (термоэластопласт). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Насладитесь дразнящими оргазмическими покалываниями и интенсивным удовлетворением с анальным вибратором Vibrating Anal T. Мягкий и податливый, контурный желейный вибратор предназначен для окончательного анального исследования и максимального удовольствия. Дразните, ублажайте и массируйте свою сверхчувствительную зону с помощью этого многоскоростного вибратора с мощным набором функций. Безопасный и простой в использовании массажер станет отличным дополнением к вашей экспериментальной коллекции интимных игрушек.Этот супермягкий, покрытый желе стимулятор имеет скромные размеры 3,25 x 1.8 см x 3 см и может похвастаться интенсивной многоскоростной мощностью и превосходным вибрирующим действием. Изготовленный из неароматизированного ПВХ без фталатов, компактный анальный стимулятор имеет контурный ствол с угловым кончиком и два гибких щекочущих элемента, которые делают его безопасным для приятных игр с проникновением. Простой в использовании анальный массажер работает от одной батарейки типа АА, и для начала вечеринки достаточно просто повернуть колпачок. Регулируйте скорость в соответствии с вашим сексуальным настроением и наслаждайтесь незабываемым экзотическим опытом.Этот возбудитель подходит как для начинающих, так и для опытных пользователей. Для большего эротического удовлетворения рекомендуется всегда использовать качественную смазку с этой игрушкой. Исследуйте свои самые смелые мечты и фантазии и испытайте интенсивное удовлетворение с этим податливым инструментом для анального удовольствия. До и после использования не забывайте очищать вибромассажер спреем для чистки игрушек или теплой мыльной водой. Коралловый анальный вибратор Vibrating Anal T.  Коралловый анальный вибратор Vibrating Anal T. Модель: calex-SE-0633-04-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: коралловый. Материал: поливинилхлорид (ПВХ,). Батареек нет в комплекте. AA x 1 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -5653,7 +5741,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>эластичный TPR (термоэластопласт)</t>
+          <t>поливинилхлорид (ПВХ,)</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -5671,23 +5759,23 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="n">
-        <v>7.15</v>
+        <v>9.074999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="n">
-        <v>2.31</v>
+        <v>2.75</v>
       </c>
       <c r="AG42" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AH42" t="inlineStr">
         <is>
@@ -5721,7 +5809,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Вакуумные помпы эротик</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -5732,17 +5820,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Набор анальных втулок Anal Trainer Kit</t>
+          <t>Вакуумная помпа Precision Pump</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>id-4897-1299</t>
+          <t>id-26255-1299</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -5753,17 +5841,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина мал. втул 10 см, диаметр 1-2,3 см</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/4897/4897_Три_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/4897/4897_втулки_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26255/26255_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26255/26255_2_650.jpg</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Набор анальных втулок Anal Trainer Kit.  Набор анальных втулок Anal Trainer Kit. Модель: calex-6871-03-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Секс-наборы &gt; Набор анальных втулок. Цвет: черный. Материал: 2 1. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Эта высококачественная, сверхпрочная помпа для пениса идеально подходит для тех, у кого член больше среднего, или для тех, кто ищет новый уровень прокачки. Американская ассоциация утверждает, что эта помпа позволяет вывести серьезную накачку на совершенно новый уровень!Создайте герметичное уплотнение вокруг пениса и увеличьте приток крови. При регулярном использовании увеличение притока крови и давления позволяет пенису увеличиваться в длину и в обхвате. Это идеальное секретное оружие для достижения максимального потенциала удовольствия и доведения своих любовников до исступления.Большой цилиндр с фланцем и универсальными инкрементными измерениями позволяет отслеживать прогресс во время каждой процедуры. Когда ваш пенис плотно разместится внутри цилиндра, рукоятка курка с легким нажатием позволит вам затянуть уплотнение вокруг него до комфортного уровня. В комплект входит конусообразный силиконовый пончик для максимального комфорта и герметичности, необходимой для достижения новых высот эрекции. Гибкий, не обжимающийся шланг делает накачку в любом положении легким делом. А цилиндр размером 23 см на 5,7 см идеально подходит для размещения вашего растущего мужского достоинства. Вакуумная помпа Precision Pump Intermediate.  Вакуумная помпа Precision Pump Intermediate. Модель: calex-SE-0999-40-2. Секс-игрушки. Вакуумные помпы &gt; Мужские помпы для тренировки эрекции. Цвет: прозрачный. Материал: силикон, ABS пластик. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5783,7 +5871,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2 1</t>
+          <t>силикон, ABS пластик</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -5801,23 +5889,23 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="n">
-        <v>15.95</v>
+        <v>25.85</v>
       </c>
       <c r="Z43" t="n">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>14.5</v>
+        <v>23.5</v>
       </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="n">
-        <v>3.685</v>
+        <v>6.325</v>
       </c>
       <c r="AG43" t="n">
-        <v>3.35</v>
+        <v>5.75</v>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
@@ -5831,7 +5919,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> длина сред. втул. 11,5 см, диаметр 1,5-3 см</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5851,7 +5939,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Кляпы эротик</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -5862,21 +5950,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Гибкий фаллос на присоске Back End</t>
+          <t>Кляп с наручниками Breathable Ball Gag</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>id-26319-1299</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t>id-26200-1299</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>XXL</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>54-56</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>99999</v>
@@ -5888,12 +5984,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_7_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_9_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26319/26319_8_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26200/26200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26200/26200_2_650.jpg</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Back End Chubby был создан для всех, кто ищет чувственно-реалистичный опыт наслаждения, от застенчивого новичка до эротического эксперта. Реалистичный член изготовлен из гибкого материала с основанием на присоске для чувственно реалистичной стимуляции. Гибкий, но жесткий ствол. Удобное и прочное крепление основания. Гибкий фаллос на присоске Back End Chubby.  Гибкий фаллос на присоске Back End Chubby. Модель: calex-SE-0408-10-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Реалистичные. Вибраторы и фаллоимитаторы &gt; Без вибрации. Цвет: черный. Материал: ПВХ (поливинилхлорид). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Раздвиньте границы и исследуйте свою скандальную сторону с дышащим шариковым кляпом с наручниками Scandal. Дышащий кляп-шар имеет множество отверстий, чтобы ваш любовник дышал свободно, а вы слышали его стоны. Ошейник кляпа регулируется до 66 см, чтобы соответствовать любому размеру и вкусу. Сторона, соприкасающаяся с вашей кожей, мягкая и плюшевая, ее кисть эротично прижимается к вашей коже. Другая сторона покрыта дизайнерской тканью, что создает поистине роскошный фетиш-опыт. Доминанты будут в восторге от регулируемой амплитуды движения ограничительных ремней. Достигните новых уровней приключений и выберите, насколько сильно ваш партнер может извиваться и корчиться под вашим весом. Сабмиссивам, как опытным, так и новичкам, понравится, что в этих наручниках нет универсального подхода: Свобода движений зависит от вашего уровня комфорта и настроения. Если вы хотите услышать, как ваш любовник выкрикивает ваше имя, отсоедините кляп и держите его руки скованными.  Возможности безграничны! Застежки и уплотнительные кольца универсальны и имеют шарнирную конструкцию для легкого удержания и гибкого позиционирования. Оторвитесь сегодня вечером и насладитесь своим партнером, пока он будет находиться во власти ваших желаний. Кляп с наручниками Breathable Ball Gag With Cuffs.  Кляп с наручниками Breathable Ball Gag With Cuffs. Модель: calex-SE-2712-11-3. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный. Материал: полиэтилен,полиэстер. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -5913,7 +6009,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>ПВХ (поливинилхлорид)</t>
+          <t>полиэтилен,полиэстер</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -5930,25 +6026,15 @@
       </c>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -5961,7 +6047,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t xml:space="preserve">кляп,два наручника </t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
@@ -5997,12 +6083,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Анальная пробка Silicone Tee Probe</t>
+          <t>Набор анальных пробок Anal Trainer Kit</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>id-26183-1299</t>
+          <t>id-26420-1299</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -6018,12 +6104,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26183/26183_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26183/26183_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_4_650.jpg</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Придерживайтесь того, что вы знаете, с силиконовым стимулятором CalExotics Silicone Tee Probe. Анальный зонд имеет традиционную форму буквы Т - если вы знакомы с пробками, то вы точно поймете, что мы имеем в виду. Если вы новичок в мире анального секса, то Т означает форму зонда, в который вводится ствол, а крестовина служит прочным основанием для безопасной игры. Независимо от степени вашей подготовки, эта анальная пробка обеспечит вам мягкое, гладкое, податливое удовольствие благодаря тонкому силиконовому дизайну. Пробку можно держать самостоятельно или с партнером, используя удобное основание, что позволяет легко контролировать введение и извлечение.Это отличное устройство для одиночек и пар, желающих познакомиться с миром анального секса. Благодаря простому дизайну в использовании этой игрушки для взрослых нет ничего сложного - просто нанесите смазку и вперед! Силиконовый тройник CalExotics Silicone Tee Probe длиной 10,8 см и шириной 2 см удобен в использовании как для новичков, так и для экспертов. Используйте его вместе с одним из наших многочисленных лубрикантов на водной основе для усиления ощущений. Анальная пробка Silicone Tee Probe фиолетовая.  Анальная пробка Silicone Tee Probe фиолетовая. Модель: calex-SE-0418-14-2. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: фиолетовый. Материал: бархатистый силикон. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Наслаждайтесь возбуждением, стимуляцией и оргазмическим удовольствием заднего прохода с набором Anal Trainer Kit. Чувственный набор из трех частей предназначен для комфортного и приятного введения в анальную игру. Гладкие и бесшовные пробки имеют идеальную форму для приятного введения и длительного исследования. Выберите свой идеальный размер и приготовьтесь к усиленному экстазу.Набор Anal Trainer Kit изготовлен из прочного ПВХ без запаха и фталатов и включает 3 пробки разного размера. Мягкие и податливые маленькие, средние и большие пробки имеют гладкую, ровную и коническую форму, а также фланцевые основания для надежного размещения и легкого извлечения. Для первого использования набора-тренажера выберите маленький пробник. Когда вы привыкнете к нему, перейдите на следующий размер.Дразните и дразните свои самые интимные точки с помощью набора, который увеличит ваше удовольствие от игры. Для усиления чувствительности всегда используйте качественный лубрикант с этой игрушкой. Очищайте пробки до и после использования мягким мыльным раствором или спреем для очистки игрушек. Набор анальных пробок Anal Trainer Kit.  Набор анальных пробок Anal Trainer Kit. Модель: calex-SE-6871-03-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Секс-наборы &gt; Набор анальных втулок. Цвет: черный. Материал: ПВХ (поливинилхлорид). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -6043,7 +6129,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>бархатистый силикон</t>
+          <t>ПВХ (поливинилхлорид)</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -6061,23 +6147,23 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="n">
-        <v>12.1</v>
+        <v>11.275</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="AG45" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
@@ -6091,7 +6177,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>три втулки</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
@@ -6111,7 +6197,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Эрекционные кольца</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -6122,17 +6208,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для пары</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE</t>
+          <t>BASIC ESSENTIALS ENHANCER RING</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>id-27724-1299</t>
+          <t>id-5515-1299</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -6148,12 +6234,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27724/27724_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27724/27724_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/5515/5515_1_650.jpg</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-вибратор California Exotics с различными скоростями вибрации, с изогнутой головкой для стимуляции именно точки G!.ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PINK.  ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PINK. Модель: calex-SE-0543-40-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вибромассажеры. Цвет: розовый. Материал: ABS Plastic. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">.BASIC ESSENTIALS ENHANCER RING.  BASIC ESSENTIALS ENHANCER RING. Модель: calex-. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: прозрачный. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -6171,11 +6257,7 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>ABS Plastic</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr">
         <is>
@@ -6190,25 +6272,15 @@
       </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>4</v>
-      </c>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6241,7 +6313,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Анальные пробки</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -6252,17 +6324,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для женщин и мужчин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE</t>
+          <t>Анальная пробка Eclipse Dual Motor</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>id-27723-1299</t>
+          <t>id-26187-1299</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -6278,12 +6350,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27723/27723_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27723/27723_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27723/27723_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_4_650.jpg</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мини-вибратор California Exotics с различными скоростями вибрации, с изогнутой головкой для стимуляции именно точки G!.ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PURPLE.  ВИБРАТОР ТОЧКИ G PEARLESSENCE G VIBE PURPLE. Модель: calex-SE-0543-45-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Стимуляторы точки G. Женские стимуляторы &gt; Вибромассажеры. Цвет: фиолетовый. Материал: ABS Plastic. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Беспроводная силиконовая пробка с двумя моторчиками - это билет в страну непослушного анального удовольствия для начинающих любителей анальных игрушек или экспертов в области эротики. 12-функциональная вибрирующая анальная игрушка сочетает в себе гибкий комфорт и интенсивную стимуляцию благодаря уникальной раздельной конструкции корпуса и двум мощным моторчикам. Два мощных вибромоторчика расположены вдоль ствола и обеспечивают потрясающую стимуляцию заднего прохода, а контурное основание и податливое тело сгибаются и двигаются во время ваших самых сексуальных моментов. Наслаждайтесь комфортным введением, легкой стимуляцией и нежным извлечением благодаря мягкой эргономичной форме, гибкой конструкции и изогнутому основанию.Зарядите силиконовый вибромассажер премиум-класса за 65 минут с помощью прилагаемого USB-кабеля для зарядки, чтобы насладиться 45 минутами высокоскоростной стимуляции или 70 минутами низкоскоростной вибрации. В то время как простая кнопка регулирует интенсивность, а пухлый зонд обеспечивает желаемую стимуляцию, встроенный современный чип памяти запоминает, как вам нравится, начиная с последней использованной функции. Анальная пробка Eclipse Dual Motor Probe.  Анальная пробка Eclipse Dual Motor Probe. Модель: calex-se-0436-30-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: силикон, ABS. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -6303,7 +6375,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ABS Plastic</t>
+          <t>силикон, ABS</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -6334,10 +6406,10 @@
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="n">
-        <v>4.4</v>
+        <v>4.125</v>
       </c>
       <c r="AG47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
@@ -6351,7 +6423,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>пробка,зарядное USB-устройство</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
@@ -6371,32 +6443,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Вибраторы</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Миниатюрный вибратор в форме ложки для</t>
+          <t>Костюм пирата</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>id-26198-1299</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+          <t>id-13983-1299</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>99999</v>
@@ -6408,17 +6488,17 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26198/26198_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13983/13983_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13983/13983_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13983/13983_3_650.jpg</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Хотите получить больше удовольствия за свои деньги? Теперь это возможно с Clitoriffic Vibe от CalExotics. Этот уникальный вибратор в форме ложки имеет все необходимое, чтобы вывести удовольствие на новый уровень - приготовьтесь к умопомрачительным оргазмам с этой секс-игрушкой. Вибратор имеет уникальный наконечник в форме лопатки, чтобы вы могли обеспечить максимальный контакт со всеми вашими самыми чувствительными зонами. Специально разработанный наконечник означает, что вы можете сосредоточить все свое внимание на клиторе, независимо от того, играете ли вы с этой игрушкой для взрослых в одиночку или с партнером.  Держите его всегда при себе для тех моментов, когда вы просто не можете сдержать себя и нуждаетесь в оргазме на ходу! Длина 16,5 см и ширина 2,5 см - это идеальная карманная ракета, которая подарит вам самые взрывные оргазмы. Многоскоростной массажер с металлическим покрытием, выполненный в чувственно гладком цвете, готов и ждет, чтобы заставить ваше сердце биться снова и снова. Мы рекомендуем использовать Clitoriffic Vibe с лубрикантом на водной основе для достижения максимального удовольствия. Миниатюрный вибратор в форме ложки для клитора Clitoriffic.  Миниатюрный вибратор в форме ложки для клитора Clitoriffic. Модель: calex-SE-0550-14-2. Секс-игрушки. Вибраторы и фаллоимитаторы &gt; Нереалистичные. Вибраторы и фаллоимитаторы &gt; С вибрацией. Вибраторы и фаллоимитаторы &gt; Для G точки. Женские стимуляторы &gt; Клиторальные стимуляторы. Женские стимуляторы &gt; Стимуляторы точки G. Цвет: фиолетовый. Материал: ABS пластик, металл. Батареек нет в комплекте. AAA x 2 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Быть в плену у пирата - очень яркая сексуальная фантазия, которая разнообразит интимную жизнь и добавит пикантные нотки в отношения в целом. И данный костюм без проблем поможет создать этот сексуальный образ. В комплект входят: трусы-шорты с рисунком, шарф и повязка на глаз. Такой плен запомнится надолго!.Костюм пирата.  Костюм пирата. Модель: candy-801004slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, красный. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6433,7 +6513,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>ABS пластик, металл</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -6450,25 +6530,15 @@
       </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6481,7 +6551,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>шорты, повязка на глаз, шарфик</t>
         </is>
       </c>
       <c r="AO48" t="inlineStr">
@@ -6501,32 +6571,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Коралловый анальный вибратор Vibrating</t>
+          <t>Костюм священника</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>id-26049-1299</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+          <t>id-13978-1299</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>99999</v>
@@ -6538,17 +6616,17 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26049/26049_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13978/13978_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13978/13978_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13978/13978_3_650.jpg</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Насладитесь дразнящими оргазмическими покалываниями и интенсивным удовлетворением с анальным вибратором Vibrating Anal T. Мягкий и податливый, контурный желейный вибратор предназначен для окончательного анального исследования и максимального удовольствия. Дразните, ублажайте и массируйте свою сверхчувствительную зону с помощью этого многоскоростного вибратора с мощным набором функций. Безопасный и простой в использовании массажер станет отличным дополнением к вашей экспериментальной коллекции интимных игрушек.Этот супермягкий, покрытый желе стимулятор имеет скромные размеры 3,25 x 1.8 см x 3 см и может похвастаться интенсивной многоскоростной мощностью и превосходным вибрирующим действием. Изготовленный из неароматизированного ПВХ без фталатов, компактный анальный стимулятор имеет контурный ствол с угловым кончиком и два гибких щекочущих элемента, которые делают его безопасным для приятных игр с проникновением. Простой в использовании анальный массажер работает от одной батарейки типа АА, и для начала вечеринки достаточно просто повернуть колпачок. Регулируйте скорость в соответствии с вашим сексуальным настроением и наслаждайтесь незабываемым экзотическим опытом.Этот возбудитель подходит как для начинающих, так и для опытных пользователей. Для большего эротического удовлетворения рекомендуется всегда использовать качественную смазку с этой игрушкой. Исследуйте свои самые смелые мечты и фантазии и испытайте интенсивное удовлетворение с этим податливым инструментом для анального удовольствия. До и после использования не забывайте очищать вибромассажер спреем для чистки игрушек или теплой мыльной водой. Коралловый анальный вибратор Vibrating Anal T.  Коралловый анальный вибратор Vibrating Anal T. Модель: calex-SE-0633-04-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: коралловый. Материал: поливинилхлорид (ПВХ,). Батареек нет в комплекте. AA x 1 шт (в комплект не входят)Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Смелый, дерзкий и невероятно сексуальный костюм священника заставит не раз согрешить. Прозрачная майка и такие же трусы-шорты с крестом на интимном месте, а также основной атрибут костюма священника - белый воротничок - станут ярким дополнением к притягательному сексуальному образу. Костюм священника.  Костюм священника. Модель: candy-801005slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный с белым. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6563,7 +6641,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>поливинилхлорид (ПВХ,)</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -6580,25 +6658,15 @@
       </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="n">
-        <v>9.074999999999999</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>8.25</v>
-      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6611,7 +6679,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>шорты, майка</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
@@ -6631,13 +6699,13 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Вакуумные помпы эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -6647,16 +6715,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Вакуумная помпа Precision Pump</t>
+          <t>Костюм джентельмена</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>id-26255-1299</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+          <t>id-13975-1299</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>46-48</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>99999</v>
@@ -6668,17 +6744,17 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26255/26255_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26255/26255_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13975/13975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13975/13975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13975/13975_3_650.jpg</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта высококачественная, сверхпрочная помпа для пениса идеально подходит для тех, у кого член больше среднего, или для тех, кто ищет новый уровень прокачки. Американская ассоциация утверждает, что эта помпа позволяет вывести серьезную накачку на совершенно новый уровень!Создайте герметичное уплотнение вокруг пениса и увеличьте приток крови. При регулярном использовании увеличение притока крови и давления позволяет пенису увеличиваться в длину и в обхвате. Это идеальное секретное оружие для достижения максимального потенциала удовольствия и доведения своих любовников до исступления.Большой цилиндр с фланцем и универсальными инкрементными измерениями позволяет отслеживать прогресс во время каждой процедуры. Когда ваш пенис плотно разместится внутри цилиндра, рукоятка курка с легким нажатием позволит вам затянуть уплотнение вокруг него до комфортного уровня. В комплект входит конусообразный силиконовый пончик для максимального комфорта и герметичности, необходимой для достижения новых высот эрекции. Гибкий, не обжимающийся шланг делает накачку в любом положении легким делом. А цилиндр размером 23 см на 5,7 см идеально подходит для размещения вашего растущего мужского достоинства. Вакуумная помпа Precision Pump Intermediate.  Вакуумная помпа Precision Pump Intermediate. Модель: calex-SE-0999-40-2. Секс-игрушки. Вакуумные помпы &gt; Мужские помпы для тренировки эрекции. Цвет: прозрачный. Материал: силикон, ABS пластик. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Этот элегантный ролевой костюм подчеркнёт природное обаяние мужчины, которое покоряет с первого взгляда. Ведь эластичная жилетка, трусы-шорты, украшенные серебристыми пуговицами, и воротник-галстук помогают создать не просто образ, а образ джентльмена, знающего толк в сексе высокого стиля. Костюм джентельмена.  Костюм джентельмена. Модель: candy-801006slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, серебристый. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6693,7 +6769,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>силикон, ABS пластик</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -6710,25 +6786,15 @@
       </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="n">
-        <v>6.325</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6741,7 +6807,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>воротник, жилетка, шорты</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
@@ -6761,38 +6827,38 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Кляпы эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Кляп с наручниками Breathable Ball Gag</t>
+          <t>Костюм полицейского Rico One Size</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>id-26200-1299</t>
+          <t>id-21231-1299</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>54-56</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -6806,17 +6872,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26200/26200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26200/26200_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21231/21231_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21231/21231_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21231/21231_3_650.jpg</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Раздвиньте границы и исследуйте свою скандальную сторону с дышащим шариковым кляпом с наручниками Scandal. Дышащий кляп-шар имеет множество отверстий, чтобы ваш любовник дышал свободно, а вы слышали его стоны. Ошейник кляпа регулируется до 66 см, чтобы соответствовать любому размеру и вкусу. Сторона, соприкасающаяся с вашей кожей, мягкая и плюшевая, ее кисть эротично прижимается к вашей коже. Другая сторона покрыта дизайнерской тканью, что создает поистине роскошный фетиш-опыт. Доминанты будут в восторге от регулируемой амплитуды движения ограничительных ремней. Достигните новых уровней приключений и выберите, насколько сильно ваш партнер может извиваться и корчиться под вашим весом. Сабмиссивам, как опытным, так и новичкам, понравится, что в этих наручниках нет универсального подхода: Свобода движений зависит от вашего уровня комфорта и настроения. Если вы хотите услышать, как ваш любовник выкрикивает ваше имя, отсоедините кляп и держите его руки скованными.  Возможности безграничны! Застежки и уплотнительные кольца универсальны и имеют шарнирную конструкцию для легкого удержания и гибкого позиционирования. Оторвитесь сегодня вечером и насладитесь своим партнером, пока он будет находиться во власти ваших желаний. Кляп с наручниками Breathable Ball Gag With Cuffs.  Кляп с наручниками Breathable Ball Gag With Cuffs. Модель: calex-SE-2712-11-3. БДСМ. БДСМ товары и фетиш &gt; Кляпы, распорки для рта. БДСМ товары и фетиш &gt; Наручники, фиксаторы на руки. Цвет: черный. Материал: полиэтилен,полиэстер. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Стильный укороченный топ с отложным воротником легко расстегивается одним движением руки. Боксеры на широком эластичном поясе также дополнены провоцирующей молнией. Сочетание крупной сетки и материала wetlook выгодно подчеркивают достоинства фигуры. Пластиковые молнии без острых краев. Кепка с лаковым козырьком регулируется в обхвате. 2 значка с надписью City Police (англ. Городская полиция) и пластиковые наручники входят в комплект. Костюм полицейского Rico One Size.  Костюм полицейского Rico One Size. Модель: candy-801014slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный. Материал: 96% полиэстер, 4% эластан, пластик. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6831,7 +6897,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>полиэтилен,полиэстер</t>
+          <t>96% полиэстер, 4% эластан, пластик</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -6869,7 +6935,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr">
         <is>
-          <t xml:space="preserve">кляп,два наручника </t>
+          <t>Жакет, боксеры, головной убор, наручники</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -6889,32 +6955,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Набор анальных пробок Anal Trainer Kit</t>
+          <t>Костюм доктора Daniel One Size</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>id-26420-1299</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+          <t>id-21232-1299</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>99999</v>
@@ -6926,17 +7000,17 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26420/26420_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21232/21232_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21232/21232_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21232/21232_3_650.jpg</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Наслаждайтесь возбуждением, стимуляцией и оргазмическим удовольствием заднего прохода с набором Anal Trainer Kit. Чувственный набор из трех частей предназначен для комфортного и приятного введения в анальную игру. Гладкие и бесшовные пробки имеют идеальную форму для приятного введения и длительного исследования. Выберите свой идеальный размер и приготовьтесь к усиленному экстазу.Набор Anal Trainer Kit изготовлен из прочного ПВХ без запаха и фталатов и включает 3 пробки разного размера. Мягкие и податливые маленькие, средние и большие пробки имеют гладкую, ровную и коническую форму, а также фланцевые основания для надежного размещения и легкого извлечения. Для первого использования набора-тренажера выберите маленький пробник. Когда вы привыкнете к нему, перейдите на следующий размер.Дразните и дразните свои самые интимные точки с помощью набора, который увеличит ваше удовольствие от игры. Для усиления чувствительности всегда используйте качественный лубрикант с этой игрушкой. Очищайте пробки до и после использования мягким мыльным раствором или спреем для очистки игрушек. Набор анальных пробок Anal Trainer Kit.  Набор анальных пробок Anal Trainer Kit. Модель: calex-SE-6871-03-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; Без вибрации. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Секс-наборы &gt; Набор анальных втулок. Цвет: черный. Материал: ПВХ (поливинилхлорид). Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Плотный непрозрачный халат с отложным воротником, накладными карманами, короткими рукавами, контрастной отделкой и значком-бейджем, куда легко вписать имя. Слегка приталенный силуэт халата добавит стройности фигуре. Эластичные боксеры с контрастной отделкой, на широких резинках. Пластмассовый стетоскоп входит в комплект. Костюм доктора Daniel One Size.  Костюм доктора Daniel One Size. Модель: candy-801015slw. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: белый, красный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -6951,7 +7025,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ПВХ (поливинилхлорид)</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -6968,25 +7042,15 @@
       </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="n">
-        <v>11.275</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>10.25</v>
-      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -6999,7 +7063,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>три втулки</t>
+          <t>Халат, боксеры, стетоскоп</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
@@ -7019,32 +7083,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Эрекционные кольца</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>для пары</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BASIC ESSENTIALS ENHANCER RING</t>
+          <t>Костюм официанта Juan One Size</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>id-5515-1299</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+          <t>id-21233-1299</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>99999</v>
@@ -7056,17 +7128,17 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/5515/5515_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21233/21233_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21233/21233_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21233/21233_3_650.jpg</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t xml:space="preserve">.BASIC ESSENTIALS ENHANCER RING.  BASIC ESSENTIALS ENHANCER RING. Модель: calex-. Секс-игрушки. Насадки и кольца &gt; Эрекционные. Насадки и кольца &gt; Без вибрации. Цвет: прозрачный. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Майка с глубоким вырезом из крупной сетки подчеркивает рельеф грудной клетки. Воротник на кнопке, декорированный галстуком-бантом, расстегивается одним движением руки. Трусы-джоксы (с открытыми ягодицами) и откидывающимися фалдами на широких эластичных резинках делают образ незабываемым. Контрастный декор и пуговицы грамотно расставляют акценты. Костюм официанта Juan One Size.  Костюм официанта Juan One Size. Модель: candy-801016slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, белый. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -7079,7 +7151,11 @@
           <t>Высокое качество</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>96% полиэстер, 4% эластан</t>
+        </is>
+      </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
@@ -7115,7 +7191,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>Майка, воротник с галстуком, трусы, перчатки</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
@@ -7135,32 +7211,40 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Анальные пробки</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CALIFORNIA EXOTIC NOVELTIES</t>
+          <t>CANDY BOY</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>для женщин и мужчин</t>
+          <t>для мужчин</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Анальная пробка Eclipse Dual Motor</t>
+          <t>Пикантный костюм полицейского с</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>id-26187-1299</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>id-25229-1299</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>42-44</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>99999</v>
@@ -7172,17 +7256,17 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/26187/26187_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_4_650.jpg</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Беспроводная силиконовая пробка с двумя моторчиками - это билет в страну непослушного анального удовольствия для начинающих любителей анальных игрушек или экспертов в области эротики. 12-функциональная вибрирующая анальная игрушка сочетает в себе гибкий комфорт и интенсивную стимуляцию благодаря уникальной раздельной конструкции корпуса и двум мощным моторчикам. Два мощных вибромоторчика расположены вдоль ствола и обеспечивают потрясающую стимуляцию заднего прохода, а контурное основание и податливое тело сгибаются и двигаются во время ваших самых сексуальных моментов. Наслаждайтесь комфортным введением, легкой стимуляцией и нежным извлечением благодаря мягкой эргономичной форме, гибкой конструкции и изогнутому основанию.Зарядите силиконовый вибромассажер премиум-класса за 65 минут с помощью прилагаемого USB-кабеля для зарядки, чтобы насладиться 45 минутами высокоскоростной стимуляции или 70 минутами низкоскоростной вибрации. В то время как простая кнопка регулирует интенсивность, а пухлый зонд обеспечивает желаемую стимуляцию, встроенный современный чип памяти запоминает, как вам нравится, начиная с последней использованной функции. Анальная пробка Eclipse Dual Motor Probe.  Анальная пробка Eclipse Dual Motor Probe. Модель: calex-se-0436-30-3. Секс-игрушки. Анальные стимуляторы и пробки &gt; Анальные пробки, втулки. Анальные стимуляторы и пробки &gt; С вибрацией. Анальные стимуляторы и пробки &gt; Анальные стимуляторы. Цвет: черный. Материал: силикон, ABS. Батареек нет в комплекте. Бренд: CALIFORNIA EXOTIC NOVELTIES. </t>
+          <t xml:space="preserve">Костюм полицейского Candy Boy Davis эффектно обтянет накаченную фигуру и все выдающиеся места! Топ wetlook с надписью Police, с воротником-стойкой на кнопке, с эластичными широкими стрепами и сеткой, подчеркнет кубики пресса и плечи. Боксеры wetlook с вырезом сзади привлекут внимание к ягодицам. Лаковые митенки на регулируемых кнопках, настоящие затемненные очки, головной убор с надписью City Police и пластиковые наручники идеально дополнят образ. Пикантный костюм полицейского с открытыми ягодицами Candy Boy DAVIS One Size.  Пикантный костюм полицейского с открытыми ягодицами Candy Boy DAVIS One Size. Модель: candy-801017slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>США</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -7197,7 +7281,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>силикон, ABS</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -7214,25 +7298,15 @@
       </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>11.5</v>
-      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="n">
-        <v>4.125</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>3.75</v>
-      </c>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr">
         <is>
           <t xml:space="preserve">. </t>
@@ -7245,7 +7319,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>пробка,зарядное USB-устройство</t>
+          <t>топ, боксеры, перчатки, очки, наручники, кепка</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -7265,38 +7339,38 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Костюм пирата</t>
+          <t>Нежное белое боди Candy Girl Senna, One</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>id-13983-1299</t>
+          <t>id-25232-1299</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -7310,12 +7384,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13983/13983_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13983/13983_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13983/13983_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_4_650.jpg</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Быть в плену у пирата - очень яркая сексуальная фантазия, которая разнообразит интимную жизнь и добавит пикантные нотки в отношения в целом. И данный костюм без проблем поможет создать этот сексуальный образ. В комплект входят: трусы-шорты с рисунком, шарф и повязка на глаз. Такой плен запомнится надолго!.Костюм пирата.  Костюм пирата. Модель: candy-801004slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, красный. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Боди Senna от Candy Girl с прозрачным бюстом, перекрестными регулируемыми бретелями и кружевными оборками подчеркнет ваше нежное романтичное настроение. Легкий перламутровый блеск окантовки и кружева выгодно оттенит естественный цвет кожи. Нежное белое боди Candy Girl Senna, One Size.  Нежное белое боди Candy Girl Senna, One Size. Модель: candy-840013slw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -7335,7 +7409,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -7373,7 +7447,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>шорты, повязка на глаз, шарфик</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -7393,38 +7467,38 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Костюм священника</t>
+          <t>Длинное платье с разрезом</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>id-13978-1299</t>
+          <t>id-13141-1299</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -7438,12 +7512,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13978/13978_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13978/13978_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13978/13978_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13141/13141_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13141/13141_2_650.jpg</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Смелый, дерзкий и невероятно сексуальный костюм священника заставит не раз согрешить. Прозрачная майка и такие же трусы-шорты с крестом на интимном месте, а также основной атрибут костюма священника - белый воротничок - станут ярким дополнением к притягательному сексуальному образу. Костюм священника.  Костюм священника. Модель: candy-801005slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный с белым. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Роскошное длинное платье с высоким разрезом - гарантия успешного соблазнения. Эффектно обтягивающий верх и элегантно струящий подол платья подчёркивают прелести женской фигуры настолько грамотно, что сводят на нет любые причины устоять от соблазна. Длинное платье с разрезом.  Длинное платье с разрезом. Модель: candy-840017slb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -7463,7 +7537,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -7501,7 +7575,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>шорты, майка</t>
+          <t>платье</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
@@ -7521,38 +7595,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Костюм джентельмена</t>
+          <t>Платье с открытой спиной</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>id-13975-1299</t>
+          <t>id-13132-1299</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -7566,12 +7640,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13975/13975_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13975/13975_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13975/13975_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13132/13132_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13132/13132_2_650.jpg</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот элегантный ролевой костюм подчеркнёт природное обаяние мужчины, которое покоряет с первого взгляда. Ведь эластичная жилетка, трусы-шорты, украшенные серебристыми пуговицами, и воротник-галстук помогают создать не просто образ, а образ джентльмена, знающего толк в сексе высокого стиля. Костюм джентельмена.  Костюм джентельмена. Модель: candy-801006slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, серебристый. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Это платье создано для ценительниц роскошных нарядов. Оно сшито из ткани с эффектом wetlook (мокрым эффектом), которая обладает благородным блеском, приятна на ощупь и визуально стройнит. В таком платье очень комфортно соблазнять и очаровывать своим провокационно-невинным образом. Платье с открытой спиной.  Платье с открытой спиной. Модель: candy-840019slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -7629,7 +7703,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>воротник, жилетка, шорты</t>
+          <t>мини-платье</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -7649,38 +7723,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Костюм полицейского Rico One Size</t>
+          <t>Гипюровое мини-платье с кружевом</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>id-21231-1299</t>
+          <t>id-13139-1299</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -7694,12 +7768,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21231/21231_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21231/21231_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21231/21231_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13139/13139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13139/13139_2_650.jpg</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стильный укороченный топ с отложным воротником легко расстегивается одним движением руки. Боксеры на широком эластичном поясе также дополнены провоцирующей молнией. Сочетание крупной сетки и материала wetlook выгодно подчеркивают достоинства фигуры. Пластиковые молнии без острых краев. Кепка с лаковым козырьком регулируется в обхвате. 2 значка с надписью City Police (англ. Городская полиция) и пластиковые наручники входят в комплект. Костюм полицейского Rico One Size.  Костюм полицейского Rico One Size. Модель: candy-801014slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный. Материал: 96% полиэстер, 4% эластан, пластик. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Быть готовой к любому сценарию дня, чувствовать себя обворожительно и неприлично комфортно - это платье поможет. Как? Во-первых, оно идеально подходит для чувственного соблазнения. Глубокое декольте, ненавязчивый цветочный рисунок, кружево и длина мини - против этого сложно устоять. Придётся по душе и другая особенность наряда - нежный, шикарно облегающий материал. Это важно при использовании платья в качестве нательного белья. Можно надевать сверху раздражающие кожу строгие деловые платья, а можно носить его на всякий случай - боевая готовность всегда в почёте. В общем, как ни крути - практичнее и соблазнительнее модели просто не существует. Гипюровое мини-платье с кружевом Ashlynn SL.  Гипюровое мини-платье с кружевом Ashlynn SL. Модель: candy-840027slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -7719,7 +7793,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>96% полиэстер, 4% эластан, пластик</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -7757,7 +7831,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr">
         <is>
-          <t>Жакет, боксеры, головной убор, наручники</t>
+          <t>мини-платье, стринги</t>
         </is>
       </c>
       <c r="AO58" t="inlineStr">
@@ -7777,38 +7851,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Платья эротик</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Костюм официанта Juan One Size</t>
+          <t>Гипюровое мини-платье с кружевом</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>id-21233-1299</t>
+          <t>id-27139-1299</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -7822,17 +7896,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21233/21233_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21233/21233_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21233/21233_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27139/27139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27139/27139_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27139/27139_3_650.jpg</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Майка с глубоким вырезом из крупной сетки подчеркивает рельеф грудной клетки. Воротник на кнопке, декорированный галстуком-бантом, расстегивается одним движением руки. Трусы-джоксы (с открытыми ягодицами) и откидывающимися фалдами на широких эластичных резинках делают образ незабываемым. Контрастный декор и пуговицы грамотно расставляют акценты. Костюм официанта Juan One Size.  Костюм официанта Juan One Size. Модель: candy-801016slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный, белый. Материал: 96% полиэстер, 4% эластан. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Быть готовой к любому сценарию дня, чувствовать себя обворожительно и неприлично комфортно - это платье поможет. Как? Во-первых, оно идеально подходит для чувственного соблазнения. Глубокое декольте, ненавязчивый цветочный рисунок, кружево и длина мини - против этого сложно устоять. Придётся по душе и другая особенность наряда - нежный, шикарно облегающий материал. Это важно при использовании платья в качестве нательного белья. Можно надевать сверху раздражающие кожу строгие деловые платья, а можно носить его на всякий случай - боевая готовность всегда в почёте. В общем, как ни крути - практичнее и соблазнительнее модели просто не существует. Гипюровое мини-платье с кружевом Ashlynn XL.  Гипюровое мини-платье с кружевом Ashlynn XL. Модель: candy-840027xlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7847,7 +7921,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>96% полиэстер, 4% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -7885,7 +7959,7 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>Майка, воротник с галстуком, трусы, перчатки</t>
+          <t>мини-платье, стринги</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
@@ -7905,38 +7979,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CANDY BOY</t>
+          <t>CANDY GIRL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>для мужчин</t>
+          <t>для женщин</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Пикантный костюм полицейского с</t>
+          <t>Атласная сорочка</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>id-25229-1299</t>
+          <t>id-13140-1299</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -7950,12 +8024,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25229/25229_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/13140/13140_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13140/13140_2_650.jpg</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм полицейского Candy Boy Davis эффектно обтянет накаченную фигуру и все выдающиеся места! Топ wetlook с надписью Police, с воротником-стойкой на кнопке, с эластичными широкими стрепами и сеткой, подчеркнет кубики пресса и плечи. Боксеры wetlook с вырезом сзади привлекут внимание к ягодицам. Лаковые митенки на регулируемых кнопках, настоящие затемненные очки, головной убор с надписью City Police и пластиковые наручники идеально дополнят образ. Пикантный костюм полицейского с открытыми ягодицами Candy Boy DAVIS One Size.  Пикантный костюм полицейского с открытыми ягодицами Candy Boy DAVIS One Size. Модель: candy-801017slb. Белье. Эротическое белье для мужчин &gt; Игровые костюмы, белье. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY BOY. </t>
+          <t xml:space="preserve">Этот сексапильный наряд многофункционален. Его можно носить как домашнюю одежду на радость второй половинке. Можно использовать в качестве нательного белья, чтобы избавиться, к примеру, от компрометирующей прозрачности надетого сверху платья или колючести любимого шерстяного. Но универсальность на этом не заканчивается - в таком платье можно даже спать. Или, как минимум, готовиться ко сну. Логично, что интригующие вырезы, украшенный кружевом бюст и прозрачная вставка сзади вряд ли оставят в покое воображение партнёра. В любом случае - в гардеробе каждой женщины такая вещь быть обязана. Атласная сорочка.  Атласная сорочка. Модель: candy-840029slb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -8013,7 +8087,7 @@
       <c r="AM60" t="inlineStr"/>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>топ, боксеры, перчатки, очки, наручники, кепка</t>
+          <t>мини-платье, стринги</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
@@ -8049,22 +8123,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Нежное белое боди Candy Girl Senna, One</t>
+          <t>Боди открытое с металлическими клепками</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>id-25232-1299</t>
+          <t>id-14201-1299</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -8078,12 +8152,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25232/25232_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14201/14201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14201/14201_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14201/14201_3_650.jpg</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди Senna от Candy Girl с прозрачным бюстом, перекрестными регулируемыми бретелями и кружевными оборками подчеркнет ваше нежное романтичное настроение. Легкий перламутровый блеск окантовки и кружева выгодно оттенит естественный цвет кожи. Нежное белое боди Candy Girl Senna, One Size.  Нежное белое боди Candy Girl Senna, One Size. Модель: candy-840013slw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эта модель боди - эффектный инструмент соблазнения, сражающий наповал. Блестящая ткань, имитирующая вид мокрой одежды. И, конечно же, смелый фасон. Предупреждаем, представленное боди магическим образом действует на мужчин - волн сексуального желания не избежать. Боди открытое с металлическими клепками.  Боди открытое с металлическими клепками. Модель: candy-840035slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -8093,17 +8167,17 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -8141,7 +8215,7 @@
       <c r="AM61" t="inlineStr"/>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -8161,7 +8235,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -8177,12 +8251,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Длинное платье с разрезом</t>
+          <t>Кружевное боди Skye SL</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>id-13141-1299</t>
+          <t>id-27138-1299</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8206,17 +8280,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13141/13141_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13141/13141_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_5_650.jpg</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Роскошное длинное платье с высоким разрезом - гарантия успешного соблазнения. Эффектно обтягивающий верх и элегантно струящий подол платья подчёркивают прелести женской фигуры настолько грамотно, что сводят на нет любые причины устоять от соблазна. Длинное платье с разрезом.  Длинное платье с разрезом. Модель: candy-840017slb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Боди из двухцветного эластичного кружева с глубоким V-образным декольте, открытой спинкой и интимным доступом. Вставки эластичной сетки обеспечивают комфортную посадку по фигуре и визуально вытягивают силуэт. Вырез сзади демонстрирует ложбинку ягодиц. Застежка сзади расстёгивается одним движением руки. Кружевное боди Skye SL.  Кружевное боди Skye SL. Модель: candy-840058slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный с серебристым. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -8231,7 +8305,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -8269,7 +8343,7 @@
       <c r="AM62" t="inlineStr"/>
       <c r="AN62" t="inlineStr">
         <is>
-          <t>платье</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO62" t="inlineStr">
@@ -8289,7 +8363,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -8305,17 +8379,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Платье с открытой спиной</t>
+          <t>Кружевной топ-корсет с ушками и чокером</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>id-13132-1299</t>
+          <t>id-21711-1299</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -8334,12 +8408,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13132/13132_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13132/13132_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_4_650.jpg</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Это платье создано для ценительниц роскошных нарядов. Оно сшито из ткани с эффектом wetlook (мокрым эффектом), которая обладает благородным блеском, приятна на ощупь и визуально стройнит. В таком платье очень комфортно соблазнять и очаровывать своим провокационно-невинным образом. Платье с открытой спиной.  Платье с открытой спиной. Модель: candy-840019slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Прозрачный корсет Kati от Сandy Girl с продольными косточками декорирован изящным кружевом. Глубокое декольте дополнено тонкими стрепами. Регулируемые бретели. Трехрядная застежка сзади. Металлический ободок с кружевными ушками, стринги из эластичной сетки, чокер и браслеты из пуха дополняют страстный образ. Кружевной топ-корсет с ушками и чокером Kati XL.  Кружевной топ-корсет с ушками и чокером Kati XL. Модель: candy-840061xlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -8359,7 +8433,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -8397,7 +8471,7 @@
       <c r="AM63" t="inlineStr"/>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>мини-платье</t>
+          <t>корсет, трусики стринг, ободок с ушками, чокер, манжеты</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
@@ -8417,7 +8491,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -8433,22 +8507,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Гипюровое мини-платье с кружевом</t>
+          <t>Комбинация с кружевным воротничком и</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>id-13139-1299</t>
+          <t>id-21709-1299</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -8462,12 +8536,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13139/13139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13139/13139_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_6_650.jpg</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Быть готовой к любому сценарию дня, чувствовать себя обворожительно и неприлично комфортно - это платье поможет. Как? Во-первых, оно идеально подходит для чувственного соблазнения. Глубокое декольте, ненавязчивый цветочный рисунок, кружево и длина мини - против этого сложно устоять. Придётся по душе и другая особенность наряда - нежный, шикарно облегающий материал. Это важно при использовании платья в качестве нательного белья. Можно надевать сверху раздражающие кожу строгие деловые платья, а можно носить его на всякий случай - боевая готовность всегда в почёте. В общем, как ни крути - практичнее и соблазнительнее модели просто не существует. Гипюровое мини-платье с кружевом Ashlynn SL.  Гипюровое мини-платье с кружевом Ashlynn SL. Модель: candy-840027slb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Прозрачная комбинация Luscious от Сandy Girl облегающего силуэта. Кружевной лиф с воротником-стойкой и мини-рукавами изящно обрамляет глубокое декольте и украшает спинку. Регулируемые бретели сзади обеспечивают идеальную посадку. Стринги из эластичной сетки входят в комплект. Комбинация с кружевным воротничком и атласным бантом Candy Girl Luscious XL.  Комбинация с кружевным воротничком и атласным бантом Candy Girl Luscious XL. Модель: candy-840062xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 97% нейлон, 3% эластан . Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -8487,7 +8561,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t xml:space="preserve">97% нейлон, 3% эластан </t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -8525,7 +8599,7 @@
       <c r="AM64" t="inlineStr"/>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>мини-платье, стринги</t>
+          <t>комбинация, стринги</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
@@ -8545,7 +8619,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Платья эротик</t>
+          <t>Пеньюары эротик</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -8561,12 +8635,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Гипюровое мини-платье с кружевом</t>
+          <t>Белый пеньюар с кружевными вставками</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>id-27139-1299</t>
+          <t>id-25330-1299</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -8590,12 +8664,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27139/27139_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27139/27139_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27139/27139_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25330/25330_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25330/25330_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25330/25330_3_650.jpg</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Быть готовой к любому сценарию дня, чувствовать себя обворожительно и неприлично комфортно - это платье поможет. Как? Во-первых, оно идеально подходит для чувственного соблазнения. Глубокое декольте, ненавязчивый цветочный рисунок, кружево и длина мини - против этого сложно устоять. Придётся по душе и другая особенность наряда - нежный, шикарно облегающий материал. Это важно при использовании платья в качестве нательного белья. Можно надевать сверху раздражающие кожу строгие деловые платья, а можно носить его на всякий случай - боевая готовность всегда в почёте. В общем, как ни крути - практичнее и соблазнительнее модели просто не существует. Гипюровое мини-платье с кружевом Ashlynn XL.  Гипюровое мини-платье с кружевом Ashlynn XL. Модель: candy-840027xlb. Белье. Эротическое белье для женщин &gt; Платья, мини-платья. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Нежная комбинация Candy Girl Neve из эластичной сетки с кружевными вставками изящно подчеркивает грудь и бедра. Регулируемые перекрещивающиеся на спине бретели и миниатюрная шнуровка обеспечивают идеальную посадку. Подходящие стринги идеально дополняют комплект. Белый пеньюар с кружевными вставками Neve XL.  Белый пеньюар с кружевными вставками Neve XL. Модель: candy-840068xlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -8615,7 +8689,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -8653,7 +8727,7 @@
       <c r="AM65" t="inlineStr"/>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>мини-платье, стринги</t>
+          <t>пеньюар, стринги</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -8673,7 +8747,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -8689,12 +8763,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Атласная сорочка</t>
+          <t>Белове боди Mirabelle с кружевными</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>id-13140-1299</t>
+          <t>id-25329-1299</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8718,17 +8792,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/13140/13140_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/13140/13140_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25329/25329_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25329/25329_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25329/25329_3_650.jpg</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Этот сексапильный наряд многофункционален. Его можно носить как домашнюю одежду на радость второй половинке. Можно использовать в качестве нательного белья, чтобы избавиться, к примеру, от компрометирующей прозрачности надетого сверху платья или колючести любимого шерстяного. Но универсальность на этом не заканчивается - в таком платье можно даже спать. Или, как минимум, готовиться ко сну. Логично, что интригующие вырезы, украшенный кружевом бюст и прозрачная вставка сзади вряд ли оставят в покое воображение партнёра. В любом случае - в гардеробе каждой женщины такая вещь быть обязана. Атласная сорочка.  Атласная сорочка. Модель: candy-840029slb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Боди из эластичной сетки с кружевными вставками Mirabelle от Candy Girl приблизит любую женскую фигуру к идеальным формам. Стрепы визуально увеличивают грудь. Высокие трусики нежно облегают бедра, подчеркивая их манящие движения. Завязки на шее и спинке позволяют освободиться от боди в одну минуту. Белове боди Mirabelle с кружевными вставками.  Белове боди Mirabelle с кружевными вставками. Модель: candy-840071slw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -8743,7 +8817,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -8781,7 +8855,7 @@
       <c r="AM66" t="inlineStr"/>
       <c r="AN66" t="inlineStr">
         <is>
-          <t>мини-платье, стринги</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO66" t="inlineStr">
@@ -8817,22 +8891,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Боди открытое с металлическими клепками</t>
+          <t>Кружевное боди Vesta с завязочками на</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>id-14201-1299</t>
+          <t>id-25343-1299</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>48-50</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -8846,32 +8920,32 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14201/14201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14201/14201_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14201/14201_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25343/25343_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25343/25343_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25343/25343_3_650.jpg</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эта модель боди - эффектный инструмент соблазнения, сражающий наповал. Блестящая ткань, имитирующая вид мокрой одежды. И, конечно же, смелый фасон. Предупреждаем, представленное боди магическим образом действует на мужчин - волн сексуального желания не избежать. Боди открытое с металлическими клепками.  Боди открытое с металлическими клепками. Модель: candy-840035slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Боди с интимным доступом и завязками на спине Candy Girl Vesta дополнит интимную встречу элементами игры. Игривые бантики так и хочется развязать. V-образная вставка визуально акцентирует внимание на груди. Эластичная прозрачная сетка комфортно облегает фигуру. Кружевное боди Vesta с завязочками на спине XL.  Кружевное боди Vesta с завязочками на спине XL. Модель: candy-840072xlw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -8909,7 +8983,7 @@
       <c r="AM67" t="inlineStr"/>
       <c r="AN67" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>боди</t>
         </is>
       </c>
       <c r="AO67" t="inlineStr">
@@ -8929,7 +9003,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комплекты БДСМ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -8945,12 +9019,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Кружевное боди Skye SL</t>
+          <t>Черное лаковое платье на молнии Ariana</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>id-27138-1299</t>
+          <t>id-25351-1299</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8974,12 +9048,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27138/27138_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_2_650.jpg</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди из двухцветного эластичного кружева с глубоким V-образным декольте, открытой спинкой и интимным доступом. Вставки эластичной сетки обеспечивают комфортную посадку по фигуре и визуально вытягивают силуэт. Вырез сзади демонстрирует ложбинку ягодиц. Застежка сзади расстёгивается одним движением руки. Кружевное боди Skye SL.  Кружевное боди Skye SL. Модель: candy-840058slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: черный с серебристым. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Облегающее лаковое платье Ariana с воротником-стойкой привлекает внимание к каждому движению даже в полумраке. Двухсторонняя металлическая молния не только зрительно вытягивает силуэт, но и позволяет избавиться от платья в считанные мгновения. Подходящие стринги идеально дополняют комплект. Черное лаковое платье на молнии Ariana.  Черное лаковое платье на молнии Ariana. Модель: candy-840078slb. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: лаковая эко кожа (100% полиэстер). Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -8999,7 +9073,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>лаковая эко кожа (100% полиэстер)</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -9037,7 +9111,7 @@
       <c r="AM68" t="inlineStr"/>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>платье, стринги</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
@@ -9057,7 +9131,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -9073,22 +9147,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Кружевной топ-корсет с ушками и чокером</t>
+          <t>Черный виниловый комплект Revel на</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>id-21711-1299</t>
+          <t>id-27127-1299</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -9102,17 +9176,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21711/21711_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_2_650.jpg</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный корсет Kati от Сandy Girl с продольными косточками декорирован изящным кружевом. Глубокое декольте дополнено тонкими стрепами. Регулируемые бретели. Трехрядная застежка сзади. Металлический ободок с кружевными ушками, стринги из эластичной сетки, чокер и браслеты из пуха дополняют страстный образ. Кружевной топ-корсет с ушками и чокером Kati XL.  Кружевной топ-корсет с ушками и чокером Kati XL. Модель: candy-840061xlb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Умопомрачительный комплект Candy Girl Revel создан для непредсказуемой горячей штучки. Элементы наряда дополняют друг друга или используются отдельно, легко меняя образ обладательницы. Кроп-топ на широких бретелях выполнен из ткани с лаковым покрытием, застегивается на пластиковую молнию сзади и дополнен металлической фурнитурой. Пояс для чулок со съемными элементами позволяет использовать любое количество пажей для поддержки чулок. Широкие перемычки из плотных прорезиненных полос на топе и поясе создают комфортную посадку, не сдавливая фигуру. Подходящие Т-стринги и чулки из крупной сетки с матовыми мысочками дополняют комплект. Черный виниловый комплект Revel на эластичных бретелях SL.  Черный виниловый комплект Revel на эластичных бретелях SL. Модель: candy-840083slb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -9127,7 +9201,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>92% нейлон, 8% эластан</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -9165,7 +9239,7 @@
       <c r="AM69" t="inlineStr"/>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>корсет, трусики стринг, ободок с ушками, чокер, манжеты</t>
+          <t>топ, пояс, стринги, чулки</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
@@ -9185,7 +9259,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -9201,22 +9275,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Комбинация с кружевным воротничком и</t>
+          <t>Виниловый комплект Skyla SL</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>id-21709-1299</t>
+          <t>id-27128-1299</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -9230,32 +9304,32 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21709/21709_6_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27128/27128_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27128/27128_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27128/27128_3_650.jpg</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачная комбинация Luscious от Сandy Girl облегающего силуэта. Кружевной лиф с воротником-стойкой и мини-рукавами изящно обрамляет глубокое декольте и украшает спинку. Регулируемые бретели сзади обеспечивают идеальную посадку. Стринги из эластичной сетки входят в комплект. Комбинация с кружевным воротничком и атласным бантом Candy Girl Luscious XL.  Комбинация с кружевным воротничком и атласным бантом Candy Girl Luscious XL. Модель: candy-840062xlb. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Цвет: черный. Материал: 97% нейлон, 3% эластан . Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Комплект Candy Girl Skyla показывает сексуальный настрой с первого взгляда! Регулируемые стрепы не только возбуждающе обхватывают тело, но и помогают добиться посадки по фигуре. Бюстгальтер и трусики выполнены из ткани wetlook с тиснением под кожу и дополнены металлической фурнитурой. Мягкий бюст застегивается на три застежки на шее и на одну на уровне груди. Высокие трусики-стринги подчеркивают каждое движение бедер и приковывают внимание к самым пикантным местам. Ничто не сковывает и не стесняет движений. Комплект Skyla  дерзкий и откровенный. Почувствуете себя обольстительной и раскрепощенной. Виниловый комплект Skyla SL.  Виниловый комплект Skyla SL. Модель: candy-840084slb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t xml:space="preserve">97% нейлон, 3% эластан </t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -9293,7 +9367,7 @@
       <c r="AM70" t="inlineStr"/>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>комбинация, стринги</t>
+          <t>топ, трусики</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
@@ -9313,7 +9387,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Пеньюары эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -9329,22 +9403,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Белый пеньюар с кружевными вставками</t>
+          <t>Костюм медсестры</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>id-25330-1299</t>
+          <t>id-10859-1299</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -9358,17 +9432,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25330/25330_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25330/25330_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25330/25330_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10859/10859_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10859/10859_2_650.jpg</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нежная комбинация Candy Girl Neve из эластичной сетки с кружевными вставками изящно подчеркивает грудь и бедра. Регулируемые перекрещивающиеся на спине бретели и миниатюрная шнуровка обеспечивают идеальную посадку. Подходящие стринги идеально дополняют комплект. Белый пеньюар с кружевными вставками Neve XL.  Белый пеньюар с кружевными вставками Neve XL. Модель: candy-840068xlw. Белье. Эротическое белье для женщин &gt; Пеньюары, сорочки, пижамы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эффектное платье с открытой спиной, воротник-стойка на ''липучке''. Ободок и игрушечный стетоскоп в комплекте. Стринги в комплект не входят. Костюм медсестры.  Костюм медсестры. Модель: candy-841010slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -9383,7 +9457,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -9421,7 +9495,7 @@
       <c r="AM71" t="inlineStr"/>
       <c r="AN71" t="inlineStr">
         <is>
-          <t>пеньюар, стринги</t>
+          <t>платье, ободок на голову</t>
         </is>
       </c>
       <c r="AO71" t="inlineStr">
@@ -9441,7 +9515,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -9457,12 +9531,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Белове боди Mirabelle с кружевными</t>
+          <t>Эластичный костюм медсестры-сердцеедки</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>id-25329-1299</t>
+          <t>id-19527-1299</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -9486,32 +9560,32 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25329/25329_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25329/25329_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25329/25329_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/19527/19527_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19527/19527_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19527/19527_3_650.jpg</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди из эластичной сетки с кружевными вставками Mirabelle от Candy Girl приблизит любую женскую фигуру к идеальным формам. Стрепы визуально увеличивают грудь. Высокие трусики нежно облегают бедра, подчеркивая их манящие движения. Завязки на шее и спинке позволяют освободиться от боди в одну минуту. Белове боди Mirabelle с кружевными вставками.  Белове боди Mirabelle с кружевными вставками. Модель: candy-840071slw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Цвет: белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюмы медсестры: платье на молнии с контрастной отделкой. Воротник-стойка на липучке. Ободок и стринги в комплекте. Эластичный костюм медсестры-сердцеедки.  Эластичный костюм медсестры-сердцеедки. Модель: candy-841011slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -9549,7 +9623,7 @@
       <c r="AM72" t="inlineStr"/>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>платье на молнии (воротник на липучке), стринги и головной убор</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
@@ -9569,7 +9643,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -9585,22 +9659,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Кружевное боди Vesta с завязочками на</t>
+          <t>Костюм медсестры ANGEL</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>id-25343-1299</t>
+          <t>id-27201-1299</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>48-50</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -9614,12 +9688,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25343/25343_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25343/25343_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25343/25343_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_4_650.jpg</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди с интимным доступом и завязками на спине Candy Girl Vesta дополнит интимную встречу элементами игры. Игривые бантики так и хочется развязать. V-образная вставка визуально акцентирует внимание на груди. Эластичная прозрачная сетка комфортно облегает фигуру. Кружевное боди Vesta с завязочками на спине XL.  Кружевное боди Vesta с завязочками на спине XL. Модель: candy-840072xlw. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Белье большого размера. Цвет: белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм медсестры, дополненный аксессуарами. Платье из плотной непрозрачной ткани на молнии расстегивается одним движением. Короткие рукава и вырез каре подчеркивают руки и декольте. Контрастная вертикальная отделка зрительно вытягивает силуэт. Пластиковый стетоскоп и ободок в комплекте. Костюм медсестры ANGEL.  Костюм медсестры ANGEL. Модель: candy-841012slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -9639,7 +9713,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>100% полиэстер</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -9677,7 +9751,7 @@
       <c r="AM73" t="inlineStr"/>
       <c r="AN73" t="inlineStr">
         <is>
-          <t>боди</t>
+          <t>халатик, стринги, стетоскоп, головной убор</t>
         </is>
       </c>
       <c r="AO73" t="inlineStr">
@@ -9697,7 +9771,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Комплекты БДСМ</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -9713,22 +9787,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Черное лаковое платье на молнии Ariana</t>
+          <t>Костюм школьницы</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>id-25351-1299</t>
+          <t>id-14199-1299</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-46</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -9742,32 +9816,32 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25351/25351_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14199/14199_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14199/14199_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14199/14199_3_650.jpg</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Облегающее лаковое платье Ariana с воротником-стойкой привлекает внимание к каждому движению даже в полумраке. Двухсторонняя металлическая молния не только зрительно вытягивает силуэт, но и позволяет избавиться от платья в считанные мгновения. Подходящие стринги идеально дополняют комплект. Черное лаковое платье на молнии Ariana.  Черное лаковое платье на молнии Ariana. Модель: candy-840078slb. БДСМ. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Платья, мини-платья. Цвет: черный. Материал: лаковая эко кожа (100% полиэстер). Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">.Костюм школьницы.  Костюм школьницы. Модель: candy-841024sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: розовый, черный, белый. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>лаковая эко кожа (100% полиэстер)</t>
+          <t>82% нейлон, 18% спандекс</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -9805,7 +9879,7 @@
       <c r="AM74" t="inlineStr"/>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>платье, стринги</t>
+          <t>топ, галстук, юбка, гольфы</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -9825,7 +9899,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Корсеты эротик</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -9841,22 +9915,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Черный виниловый комплект Revel на</t>
+          <t>Кружевной костюм официантки SL</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>id-27127-1299</t>
+          <t>id-20492-1299</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -9870,17 +9944,17 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27127/27127_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20492/20492_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20492/20492_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20492/20492_3_650.jpg</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Умопомрачительный комплект Candy Girl Revel создан для непредсказуемой горячей штучки. Элементы наряда дополняют друг друга или используются отдельно, легко меняя образ обладательницы. Кроп-топ на широких бретелях выполнен из ткани с лаковым покрытием, застегивается на пластиковую молнию сзади и дополнен металлической фурнитурой. Пояс для чулок со съемными элементами позволяет использовать любое количество пажей для поддержки чулок. Широкие перемычки из плотных прорезиненных полос на топе и поясе создают комфортную посадку, не сдавливая фигуру. Подходящие Т-стринги и чулки из крупной сетки с матовыми мысочками дополняют комплект. Черный виниловый комплект Revel на эластичных бретелях SL.  Черный виниловый комплект Revel на эластичных бретелях SL. Модель: candy-840083slb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм официантки. Боди из эластичной кружевной сетки с завязками на шее и застежкой на спине, снизу дополнено вставкой из материала wetlook. Воротничок из сатина на застежке-''липучке'' декорирован контрастным бантом, манжеты - контрастными пуговицами-кнопками. Кружевной костюм официантки SL.  Кружевной костюм официантки SL. Модель: candy-841030slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 88% нейлон, 12% эластан . Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
@@ -9895,7 +9969,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t xml:space="preserve">88% нейлон, 12% эластан </t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -9933,7 +10007,7 @@
       <c r="AM75" t="inlineStr"/>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>топ, пояс, стринги, чулки</t>
+          <t>боди, воротник, манжеты</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -9953,7 +10027,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -9969,12 +10043,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Виниловый комплект Skyla SL</t>
+          <t>Костюм школьницы Candy Girl Jesse</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>id-27128-1299</t>
+          <t>id-25335-1299</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -9998,12 +10072,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27128/27128_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27128/27128_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27128/27128_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_2_650.jpg</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комплект Candy Girl Skyla показывает сексуальный настрой с первого взгляда! Регулируемые стрепы не только возбуждающе обхватывают тело, но и помогают добиться посадки по фигуре. Бюстгальтер и трусики выполнены из ткани wetlook с тиснением под кожу и дополнены металлической фурнитурой. Мягкий бюст застегивается на три застежки на шее и на одну на уровне груди. Высокие трусики-стринги подчеркивают каждое движение бедер и приковывают внимание к самым пикантным местам. Ничто не сковывает и не стесняет движений. Комплект Skyla  дерзкий и откровенный. Почувствуете себя обольстительной и раскрепощенной. Виниловый комплект Skyla SL.  Виниловый комплект Skyla SL. Модель: candy-840084slb. Белье. БДСМ товары и фетиш &gt; Одежда и белье для женщин. Эротическое белье для женщин &gt; Комплекты. Цвет: черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм школьницы. Топ из эластичной сетки декорирован спереди непрозрачной вставкой и пуговицами, на застежке крюк-петля сзади. Воротник-стойка на липучке, украшен контрастным бантом. Юбка, Т-стринги и бант выполнены из клетчатого трикотажа. Костюм школьницы Candy Girl Jesse.  Костюм школьницы Candy Girl Jesse. Модель: candy-841032sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с синим. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -10013,17 +10087,17 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -10061,7 +10135,7 @@
       <c r="AM76" t="inlineStr"/>
       <c r="AN76" t="inlineStr">
         <is>
-          <t>топ, трусики</t>
+          <t>топ, юбка, стринги</t>
         </is>
       </c>
       <c r="AO76" t="inlineStr">
@@ -10097,12 +10171,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Костюм медсестры</t>
+          <t>Костюм развратной горничной</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>id-10859-1299</t>
+          <t>id-20055-1299</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -10126,12 +10200,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10859/10859_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10859/10859_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20055/20055_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20055/20055_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20055/20055_1_650.jpg</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эффектное платье с открытой спиной, воротник-стойка на ''липучке''. Ободок и игрушечный стетоскоп в комплекте. Стринги в комплект не входят. Костюм медсестры.  Костюм медсестры. Модель: candy-841010slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм горничной, отделанный контрастным кружевом, и дополненный аксессуарами. Топ из крупной сетки с застежкой на шее и завязками на спине. Юбка с пажами спереди и фартучком. Чулки из мелкой сетки с усиленным носочком и кружевной резинкой. Манжета с бантиком и G-стринги из эластичной сетки в комплекте. Костюм развратной горничной.  Костюм развратной горничной. Модель: candy-841034slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -10151,7 +10225,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -10189,7 +10263,7 @@
       <c r="AM77" t="inlineStr"/>
       <c r="AN77" t="inlineStr">
         <is>
-          <t>платье, ободок на голову</t>
+          <t>Топ, юбочка с пажами, стринги, чулки, манжетка</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
@@ -10225,12 +10299,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Эластичный костюм медсестры-сердцеедки</t>
+          <t>Боди медсестры с бантиком на груди</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>id-19527-1299</t>
+          <t>id-20054-1299</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -10254,12 +10328,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/19527/19527_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19527/19527_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/19527/19527_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/20054/20054_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20054/20054_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20054/20054_3_650.jpg</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюмы медсестры: платье на молнии с контрастной отделкой. Воротник-стойка на липучке. Ободок и стринги в комплекте. Эластичный костюм медсестры-сердцеедки.  Эластичный костюм медсестры-сердцеедки. Модель: candy-841011slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Прозрачное боди из эластичной сетки с контрастной отделкой. Игривые завязки на уровне декольте развязываются одним движением. Боди медсестры с бантиком на груди.  Боди медсестры с бантиком на груди. Модель: candy-841035slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -10269,17 +10343,17 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>92% полиэстер, 8% эластан</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -10317,7 +10391,7 @@
       <c r="AM78" t="inlineStr"/>
       <c r="AN78" t="inlineStr">
         <is>
-          <t>платье на молнии (воротник на липучке), стринги и головной убор</t>
+          <t>Боди, ободок на голову</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
@@ -10353,22 +10427,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Костюм медсестры ANGEL</t>
+          <t>Костюм кошечки Tawny XXL</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>id-27201-1299</t>
+          <t>id-21242-1299</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -10382,17 +10456,17 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27201/27201_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21242/21242_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21242/21242_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21242/21242_3_650.jpg</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм медсестры, дополненный аксессуарами. Платье из плотной непрозрачной ткани на молнии расстегивается одним движением. Короткие рукава и вырез каре подчеркивают руки и декольте. Контрастная вертикальная отделка зрительно вытягивает силуэт. Пластиковый стетоскоп и ободок в комплекте. Костюм медсестры ANGEL.  Костюм медсестры ANGEL. Модель: candy-841012slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с красным. Материал: 100% полиэстер. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ушки-ободок и боди хищной кошки с воротником-стойкой, золотистым бубенчиком, глубоким декольте, короткими рукавами и меховым хвостом. Вставки блестящего эластичного трикотажа визуально формируют приталенный силуэт. Талия декорирована темной шнуровкой. Вставки сетки по бокам зрительно обнажают фигуру. Костюм кошечки Tawny XXL.  Костюм кошечки Tawny XXL. Модель: candy-841050xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный, леопардовый. Материал: 90% полиэстер, 10% эластан, металл. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
@@ -10407,7 +10481,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>100% полиэстер</t>
+          <t>90% полиэстер, 10% эластан, металл</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -10445,7 +10519,7 @@
       <c r="AM79" t="inlineStr"/>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>халатик, стринги, стетоскоп, головной убор</t>
+          <t>боди с бубенчиком, ушки</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -10481,22 +10555,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Костюм школьницы</t>
+          <t>Костюм полицейской CANDY GIRL PORSCHE</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>id-14199-1299</t>
+          <t>id-21237-1299</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>42-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -10510,12 +10584,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/14199/14199_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14199/14199_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14199/14199_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21237/21237_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21237/21237_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21237/21237_3_650.jpg</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t xml:space="preserve">.Костюм школьницы.  Костюм школьницы. Модель: candy-841024sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: розовый, черный, белый. Материал: 82% нейлон, 18% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Комбинезон полицейского из беспроигрышного сочетания тканей: wetlook и прозрачного эластичного кружева, выгодно подчеркивает фигуру. Воротник-стойка, непрозрачные короткие рукава и кепка полицейского со значком добавляют образу строгости. Лаковые вставки прикрывают самые интимные места груди, акцентируют внимание на талии. Молния без острых краев. Костюм полицейской CANDY GIRL PORSCHE XXL (3 предмета).  Костюм полицейской CANDY GIRL PORSCHE XXL (3 предмета). Модель: candy-841051xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -10525,17 +10599,17 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Стандартный</t>
+          <t>Высокое качество</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>82% нейлон, 18% спандекс</t>
+          <t>90 % полиэстер, 10 % эластан</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -10573,7 +10647,7 @@
       <c r="AM80" t="inlineStr"/>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>топ, галстук, юбка, гольфы</t>
+          <t>комбинезон, головной убор, наручники</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -10593,7 +10667,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Корсеты эротик</t>
+          <t>Ролевые костюмы эротик</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -10609,12 +10683,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Кружевной костюм официантки SL</t>
+          <t>Костюм полицейской CANDY GIRL LEXIE One</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>id-20492-1299</t>
+          <t>id-21236-1299</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -10638,12 +10712,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20492/20492_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20492/20492_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20492/20492_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21236/21236_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21236/21236_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21236/21236_1_650.jpg</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм официантки. Боди из эластичной кружевной сетки с завязками на шее и застежкой на спине, снизу дополнено вставкой из материала wetlook. Воротничок из сатина на застежке-''липучке'' декорирован контрастным бантом, манжеты - контрастными пуговицами-кнопками. Кружевной костюм официантки SL.  Кружевной костюм официантки SL. Модель: candy-841030slb. Белье. Эротическое белье для женщин &gt; Боди, ками, корсаж. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 88% нейлон, 12% эластан . Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Мягкий wetlook-корсет с лаковыми вставками, на молнии, с регулируемыми пажами  идеальный наряд для сексуального полицейского. Кепка с лаковым козырьком и значком City Police (англ. Городская полиция) регулируется в обхвате. Трусики-танга, стреп-браслет и стреп-подвязка, которая удерживает пластмассовый пистолет, дополняют образ. Костюм полицейской CANDY GIRL LEXIE One Size (7 предметов).  Костюм полицейской CANDY GIRL LEXIE One Size (7 предметов). Модель: candy-841056slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, серебряный. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -10663,7 +10737,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t xml:space="preserve">88% нейлон, 12% эластан </t>
+          <t>90 % полиэстер, 10 % эластан</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -10701,7 +10775,7 @@
       <c r="AM81" t="inlineStr"/>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>боди, воротник, манжеты</t>
+          <t>корсет, танга, головной убор, браслет, чулки, подвязка, пистолет</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -10737,22 +10811,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Костюм школьницы Candy Girl Jesse</t>
+          <t>Костюм полицейской CANDY GIRL RAVEN 6</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>id-25335-1299</t>
+          <t>id-21235-1299</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -10766,17 +10840,17 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25335/25335_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21235/21235_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21235/21235_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21235/21235_2_650.jpg</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм школьницы. Топ из эластичной сетки декорирован спереди непрозрачной вставкой и пуговицами, на застежке крюк-петля сзади. Воротник-стойка на липучке, украшен контрастным бантом. Юбка, Т-стринги и бант выполнены из клетчатого трикотажа. Костюм школьницы Candy Girl Jesse.  Костюм школьницы Candy Girl Jesse. Модель: candy-841032sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый с синим. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Боди wetlook на молнии, с воротником-стойкой, с прозрачными вставками. Вырез на ягодицах декорирован стрепами и текстильным значком полицейского. Лаковые митенки застегиваются на кнопки. Кепка с лаковым козырьком и значком City Police (англ. Городская полиция) регулируется в обхвате. Эластичная подвязка поддерживает пластмассовую радиостанцию. Костюм полицейской CANDY GIRL RAVEN (6 предметов).  Костюм полицейской CANDY GIRL RAVEN (6 предметов). Модель: candy-841057slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, серебряный. Материал: 87% полиэстер, 13% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
@@ -10791,7 +10865,7 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>87% полиэстер, 13% эластан</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -10829,7 +10903,7 @@
       <c r="AM82" t="inlineStr"/>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>топ, юбка, стринги</t>
+          <t>боди, головной убор, митенки, подвязка, чулки, рация</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -10849,7 +10923,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -10865,22 +10939,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Костюм обворожительной горничной</t>
+          <t>Прозрачный костюм школьницы Candy Girl</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>id-20053-1299</t>
+          <t>id-25234-1299</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -10894,12 +10968,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20053/20053_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20053/20053_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20053/20053_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_4_650.jpg</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм горничной, отделанный контрастным кружевом, и дополненный аксессуарами. Бюстгальтер на косточках, с регулируемыми бретелями, на двурядной застежке, украшен сатиновым бантом. Юбка с пажами спереди. Чулки из мелкой сетки с усиленным носочком и кружевной резинкой. Головной убор (ободок) и G-стринги из эластичной сетки в комплекте. Костюм обворожительной горничной.  Костюм обворожительной горничной. Модель: candy-841033slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Прозрачный костюм школьницы Micki от Candy Girl добавит игривости твоему образу, совершенно не лишая комфорта! Дизайн топа визуально сделает фигуру стройнее, а воротничок и оборки добавят объем груди и бедрам. Галстук на резиночке завершит образ. Прозрачный костюм школьницы Candy Girl Micki, One Size.  Прозрачный костюм школьницы Candy Girl Micki, One Size. Модель: candy-841061slb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, синий. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -10919,7 +10993,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>92 % полиэстер, 8 % эластан</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -10957,7 +11031,7 @@
       <c r="AM83" t="inlineStr"/>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>Бюстгальтер с косточками, юбка с пажами, стринги, чулки, ободок</t>
+          <t>топ, галстук, стринги</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -10977,7 +11051,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -10993,22 +11067,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Костюм развратной горничной</t>
+          <t>Прозрачный костюм школьницы Candy Girl</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>id-20055-1299</t>
+          <t>id-25244-1299</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XS</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>42-44</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -11022,12 +11096,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20055/20055_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20055/20055_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20055/20055_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_4_650.jpg</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм горничной, отделанный контрастным кружевом, и дополненный аксессуарами. Топ из крупной сетки с застежкой на шее и завязками на спине. Юбка с пажами спереди и фартучком. Чулки из мелкой сетки с усиленным носочком и кружевной резинкой. Манжета с бантиком и G-стринги из эластичной сетки в комплекте. Костюм развратной горничной.  Костюм развратной горничной. Модель: candy-841034slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, белый. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Прозрачный костюм школьницы Micki от Candy Girl добавит игривости твоему образу, совершенно не лишая комфорта! Дизайн топа визуально сделает фигуру стройнее, а воротничок и оборки добавят объем груди и бедрам. Галстук на резиночке завершит образ. Прозрачный костюм школьницы Candy Girl Micki, XL.  Прозрачный костюм школьницы Candy Girl Micki, XL. Модель: candy-841061xlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, синий. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -11047,7 +11121,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>92 % полиэстер, 8 % эластан</t>
         </is>
       </c>
       <c r="S84" t="inlineStr"/>
@@ -11085,7 +11159,7 @@
       <c r="AM84" t="inlineStr"/>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>Топ, юбочка с пажами, стринги, чулки, манжетка</t>
+          <t>топ, галстук, стринги</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -11121,22 +11195,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Боди медсестры с бантиком на груди</t>
+          <t>Костюм горничной Candy Girl Fanny XXL</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>id-20054-1299</t>
+          <t>id-23804-1299</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>46-48</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -11150,17 +11224,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/20054/20054_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20054/20054_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/20054/20054_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_5_650.jpg</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачное боди из эластичной сетки с контрастной отделкой. Игривые завязки на уровне декольте развязываются одним движением. Боди медсестры с бантиком на груди.  Боди медсестры с бантиком на груди. Модель: candy-841035slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: белый, красный. Материал: 92% полиэстер, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм горничной Fanny от Candy Girl добавляет эмоций любому интимному свиданию! Бесшовное платье-сетка с регулируемыми бретелями безупречно облегает фигуру. Контрастные рюши акцентируют внимание на декольте и стройных ножках. Ободок-чепчик украшен кружевом и серебристым стразом в форме сердца. Чокер подчеркивает длину шеи. Фартук с надписью Room Service и метелка помогают идеально вжиться в роль. Костюм горничной Candy Girl Fanny XXL (6 предметов).  Костюм горничной Candy Girl Fanny XXL (6 предметов). Модель: candy-841063xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -11175,7 +11249,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>92% полиэстер, 8% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S85" t="inlineStr"/>
@@ -11213,7 +11287,7 @@
       <c r="AM85" t="inlineStr"/>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>Боди, ободок на голову</t>
+          <t>платье, передник, ободок, украшение на шею, стринги, перьевая палочка</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -11249,22 +11323,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Костюм кошечки Tawny XXL</t>
+          <t>Костюм невесты Gabriela (3 предмета)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>id-21242-1299</t>
+          <t>id-25344-1299</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -11278,17 +11352,17 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21242/21242_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21242/21242_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21242/21242_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_5_650.jpg</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ушки-ободок и боди хищной кошки с воротником-стойкой, золотистым бубенчиком, глубоким декольте, короткими рукавами и меховым хвостом. Вставки блестящего эластичного трикотажа визуально формируют приталенный силуэт. Талия декорирована темной шнуровкой. Вставки сетки по бокам зрительно обнажают фигуру. Костюм кошечки Tawny XXL.  Костюм кошечки Tawny XXL. Модель: candy-841050xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный, леопардовый. Материал: 90% полиэстер, 10% эластан, металл. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Кружевной комплект невесты Gabriela от Candy Girl подарит новобрачной ощущение свадебного торжества в супружеской спальне, благодаря пышной вуали. Мягкий кружевной бюстгальтер на завязках деликатно приоткрывает грудь. Трусики-пояс дополнены отстегиваемыми регулируемыми пажами, которые зрительно вытягивают ноги. Матовые чулки идеально дополняют образ. Костюм невесты Gabriela (3 предмета).  Костюм невесты Gabriela (3 предмета). Модель: candy-841067slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
@@ -11303,7 +11377,7 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан, металл</t>
+          <t>88% нейлон, 12% эластан</t>
         </is>
       </c>
       <c r="S86" t="inlineStr"/>
@@ -11341,7 +11415,7 @@
       <c r="AM86" t="inlineStr"/>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>боди с бубенчиком, ушки</t>
+          <t>стринги со шлейфом и пажами, лиф, чулки</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -11361,7 +11435,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комплекты эротик</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -11377,22 +11451,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Костюм полицейской CANDY GIRL PORSCHE</t>
+          <t>Костюм милой школьницы Annika SL</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>id-21237-1299</t>
+          <t>id-27137-1299</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -11406,17 +11480,17 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21237/21237_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21237/21237_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21237/21237_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_4_650.jpg</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Комбинезон полицейского из беспроигрышного сочетания тканей: wetlook и прозрачного эластичного кружева, выгодно подчеркивает фигуру. Воротник-стойка, непрозрачные короткие рукава и кепка полицейского со значком добавляют образу строгости. Лаковые вставки прикрывают самые интимные места груди, акцентируют внимание на талии. Молния без острых краев. Костюм полицейской CANDY GIRL PORSCHE XXL (3 предмета).  Костюм полицейской CANDY GIRL PORSCHE XXL (3 предмета). Модель: candy-841051xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 90 % полиэстер, 10 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм Candy Girl Annika мгновенно превращает в соблазнительно наивную и вместе с тем сексуальную школьницу. Комплект выполнен из гладкого клетчатого трикотажа со вставками эластичной сетки. Топ с металлической застежкой сзади и завязками на шее визуально добавляет объем груди. Высокие трусики с оборками скрадывают животик и подчеркивают игривость образа. Съемный значок, украшенный стразами, очки-оправа и аксессуары для волос в комплекте дополняют перевоплощение. Предложите партнеру сыграть в увлекательную эротическую игру. Пусть он научит вас основам любви, а потом проверит насколько хорошо урок усвоен. Костюм милой школьницы Annika SL.  Костюм милой школьницы Annika SL. Модель: candy-841068slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: розово-черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
@@ -11431,7 +11505,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>90 % полиэстер, 10 % эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S87" t="inlineStr"/>
@@ -11469,7 +11543,7 @@
       <c r="AM87" t="inlineStr"/>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>комбинезон, головной убор, наручники</t>
+          <t>топ, юбочка-трусики, галстук-бабочка, очки, ленты для волос</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
@@ -11505,22 +11579,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Костюм полицейской CANDY GIRL RAVEN 6</t>
+          <t>Костюм игривой</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>id-21235-1299</t>
+          <t>id-27126-1299</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -11534,17 +11608,17 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21235/21235_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21235/21235_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21235/21235_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_5_650.jpg</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Боди wetlook на молнии, с воротником-стойкой, с прозрачными вставками. Вырез на ягодицах декорирован стрепами и текстильным значком полицейского. Лаковые митенки застегиваются на кнопки. Кепка с лаковым козырьком и значком City Police (англ. Городская полиция) регулируется в обхвате. Эластичная подвязка поддерживает пластмассовую радиостанцию. Костюм полицейской CANDY GIRL RAVEN (6 предметов).  Костюм полицейской CANDY GIRL RAVEN (6 предметов). Модель: candy-841057slb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, серебряный. Материал: 87% полиэстер, 13% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм школьницы Candy Girl Satine на вас взбудоражит внимание мужчины. Топ из эластичного трикотажа на металлической молнии подчеркивает объем груди, оставляя открытым декольте. Тканевая клетчатая юбка фиксируется с помощью лакового пояса и игриво приоткрывает нежную кожу в интимной зоне. Для строгого учителя очевидно, что под юбочкой ничего нет. Сможет ли он устоять и не быть слишком строгим к нерадивой ученице? Лаковый галстук-бабочка на эластичной резинке со значком и очки дополняют комплект. Предложите партнеру сыграть в увлекательную эротическую игру. Пусть он научит вас основам любви, а потом проверит насколько хорошо урок усвоен. Костюм игривой школьницы-обольстительницы Satine SL.  Костюм игривой школьницы-обольстительницы Satine SL. Модель: candy-841070sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: красный, синий, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
@@ -11559,7 +11633,7 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>87% полиэстер, 13% эластан</t>
+          <t>90% полиэстер, 10% эластан</t>
         </is>
       </c>
       <c r="S88" t="inlineStr"/>
@@ -11597,7 +11671,7 @@
       <c r="AM88" t="inlineStr"/>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>боди, головной убор, митенки, подвязка, чулки, рация</t>
+          <t>топ, юбочка, пояс, стринги, галстук, значок, очки</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -11617,7 +11691,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -11633,22 +11707,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Прозрачный костюм школьницы Candy Girl</t>
+          <t>Контактный комбинезон с фантазийным</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>id-25234-1299</t>
+          <t>id-21866-1299</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>50-56</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -11662,12 +11736,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25234/25234_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21866/21866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21866/21866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21866/21866_3_650.jpg</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный костюм школьницы Micki от Candy Girl добавит игривости твоему образу, совершенно не лишая комфорта! Дизайн топа визуально сделает фигуру стройнее, а воротничок и оборки добавят объем груди и бедрам. Галстук на резиночке завершит образ. Прозрачный костюм школьницы Candy Girl Micki, One Size.  Прозрачный костюм школьницы Candy Girl Micki, One Size. Модель: candy-841061slb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, синий. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сетчатый комбинезон Cinnamon от Сandy Girl с цветочным узором. Широкие бретели, усиленные носочки и интимный доступ обеспечивают комфортное ношение и использование. Контактный комбинезон с фантазийным узором Cinnamon XXL.  Контактный комбинезон с фантазийным узором Cinnamon XXL. Модель: candy-843003xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -11677,17 +11751,17 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S89" t="inlineStr"/>
@@ -11725,7 +11799,7 @@
       <c r="AM89" t="inlineStr"/>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>топ, галстук, стринги</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -11745,7 +11819,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -11761,22 +11835,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Прозрачный костюм школьницы Candy Girl</t>
+          <t>Сетчатый комбинезон с вырезом в</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>id-25244-1299</t>
+          <t>id-7660-1299</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>42-44</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -11790,12 +11864,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25244/25244_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/7660/7660_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7660/7660_2_650.jpg</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прозрачный костюм школьницы Micki от Candy Girl добавит игривости твоему образу, совершенно не лишая комфорта! Дизайн топа визуально сделает фигуру стройнее, а воротничок и оборки добавят объем груди и бедрам. Галстук на резиночке завершит образ. Прозрачный костюм школьницы Candy Girl Micki, XL.  Прозрачный костюм школьницы Candy Girl Micki, XL. Модель: candy-841061xlb. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: черный, синий. Материал: 92 % полиэстер, 8 % эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сексуальность - это искусство. Оно выражается в красоте тела, изгибах форм и, конечно, в грамотно подобранной одежде. К одному из видов такой одежды относятся костюмы-сетки. Представленный экземпляр - классический вариант, заслуживший признание благодаря ярко выраженному предназначению и отсутствию лишних элементов. Магический чёрный цвет визуально стройнит, а эластичная сеточка идеально подчёркивает обворожительность обнажённого тела. Приятный дополнительный нюанс - пикантный вырез в интимном месте. Он позволяет наслаждаться интимным процессом, не снимая костюм. Сетчатый комбинезон с вырезом в интимном месте.  Сетчатый комбинезон с вырезом в интимном месте. Модель: candy-843005slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -11805,17 +11879,17 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>92 % полиэстер, 8 % эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S90" t="inlineStr"/>
@@ -11853,7 +11927,7 @@
       <c r="AM90" t="inlineStr"/>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>топ, галстук, стринги</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -11873,7 +11947,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -11889,22 +11963,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Костюм горничной Candy Girl Fanny XXL</t>
+          <t>Фантазийный комбинезон с разрезом в</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>id-23804-1299</t>
+          <t>id-10851-1299</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>46-48</t>
+          <t>44-46</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -11918,17 +11992,17 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/23804/23804_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/10851/10851_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10851/10851_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10851/10851_3_650.jpg</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм горничной Fanny от Candy Girl добавляет эмоций любому интимному свиданию! Бесшовное платье-сетка с регулируемыми бретелями безупречно облегает фигуру. Контрастные рюши акцентируют внимание на декольте и стройных ножках. Ободок-чепчик украшен кружевом и серебристым стразом в форме сердца. Чокер подчеркивает длину шеи. Фартук с надписью Room Service и метелка помогают идеально вжиться в роль. Костюм горничной Candy Girl Fanny XXL (6 предметов).  Костюм горничной Candy Girl Fanny XXL (6 предметов). Модель: candy-841063xxlb. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный с белым. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Ажурный костюм-сетка создан специально для того, чтобы возбуждать и доводить до экстаза своей притягательной сексапильностью. Он подчёркивает достоинства фигуры, делая её ещё соблазнительнее. Данный комбинезон декорирован цветочным ажурным узором, что делает акцент на чувственный характер образа. Глубокий вырез выделяет красоту груди. А пикантный вырез на интимном месте позволяет приступить к сексуальным играм, не снимая эротический наряд. Фантазийный комбинезон с разрезом в интимном месте.  Фантазийный комбинезон с разрезом в интимном месте. Модель: candy-843010slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
@@ -11943,7 +12017,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% эластан</t>
         </is>
       </c>
       <c r="S91" t="inlineStr"/>
@@ -11981,7 +12055,7 @@
       <c r="AM91" t="inlineStr"/>
       <c r="AN91" t="inlineStr">
         <is>
-          <t>платье, передник, ободок, украшение на шею, стринги, перьевая палочка</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO91" t="inlineStr">
@@ -12001,7 +12075,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -12017,12 +12091,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Костюм невесты Gabriela (3 предмета)</t>
+          <t>Ажурный комбинезон со шнуровкой на</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>id-25344-1299</t>
+          <t>id-14200-1299</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -12046,32 +12120,32 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25344/25344_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/14200/14200_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/14200/14200_2_650.jpg</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кружевной комплект невесты Gabriela от Candy Girl подарит новобрачной ощущение свадебного торжества в супружеской спальне, благодаря пышной вуали. Мягкий кружевной бюстгальтер на завязках деликатно приоткрывает грудь. Трусики-пояс дополнены отстегиваемыми регулируемыми пажами, которые зрительно вытягивают ноги. Матовые чулки идеально дополняют образ. Костюм невесты Gabriela (3 предмета).  Костюм невесты Gabriela (3 предмета). Модель: candy-841067slw. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Эротическое белье для женщин &gt; Свадебный образ. Цвет: белый. Материал: 88% нейлон, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Костюм-сетка с доступом, с имитацией шнуровки и открытой спинкой. Цветочное плетение. Ажурный комбинезон со шнуровкой на груди.  Ажурный комбинезон со шнуровкой на груди. Модель: candy-843014slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>88% нейлон, 12% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S92" t="inlineStr"/>
@@ -12109,7 +12183,7 @@
       <c r="AM92" t="inlineStr"/>
       <c r="AN92" t="inlineStr">
         <is>
-          <t>стринги со шлейфом и пажами, лиф, чулки</t>
+          <t>1 шт.</t>
         </is>
       </c>
       <c r="AO92" t="inlineStr">
@@ -12129,7 +12203,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Комплекты эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -12145,12 +12219,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Костюм милой школьницы Annika SL</t>
+          <t>Комбинезон с имитацией боди и чулок</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>id-27137-1299</t>
+          <t>id-25339-1299</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -12174,12 +12248,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27137/27137_4_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_1_650.jpg</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм Candy Girl Annika мгновенно превращает в соблазнительно наивную и вместе с тем сексуальную школьницу. Комплект выполнен из гладкого клетчатого трикотажа со вставками эластичной сетки. Топ с металлической застежкой сзади и завязками на шее визуально добавляет объем груди. Высокие трусики с оборками скрадывают животик и подчеркивают игривость образа. Съемный значок, украшенный стразами, очки-оправа и аксессуары для волос в комплекте дополняют перевоплощение. Предложите партнеру сыграть в увлекательную эротическую игру. Пусть он научит вас основам любви, а потом проверит насколько хорошо урок усвоен. Костюм милой школьницы Annika SL.  Костюм милой школьницы Annika SL. Модель: candy-841068slp. Белье. Эротическое белье для женщин &gt; Комплекты. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: розово-черный. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">У костюма из боди с открытой спиной и чулок Candy Girl Tatiyannah весьма неординарный дизайн сочетания сеток разной плотности. Комбинезон с имитацией боди и чулок Tatiyannah.  Комбинезон с имитацией боди и чулок Tatiyannah. Модель: candy-843016slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -12189,17 +12263,17 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>90% нейлон, 10% спандекс</t>
         </is>
       </c>
       <c r="S93" t="inlineStr"/>
@@ -12237,7 +12311,7 @@
       <c r="AM93" t="inlineStr"/>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>топ, юбочка-трусики, галстук-бабочка, очки, ленты для волос</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -12257,7 +12331,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ролевые костюмы эротик</t>
+          <t>Комбинезоны эротик</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -12273,22 +12347,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Костюм игривой</t>
+          <t>Контактный комбинезон с необычным</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>id-27126-1299</t>
+          <t>id-21864-1299</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>50-56</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -12302,32 +12376,32 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/27126/27126_5_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21864/21864_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21864/21864_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21864/21864_3_650.jpg</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Костюм школьницы Candy Girl Satine на вас взбудоражит внимание мужчины. Топ из эластичного трикотажа на металлической молнии подчеркивает объем груди, оставляя открытым декольте. Тканевая клетчатая юбка фиксируется с помощью лакового пояса и игриво приоткрывает нежную кожу в интимной зоне. Для строгого учителя очевидно, что под юбочкой ничего нет. Сможет ли он устоять и не быть слишком строгим к нерадивой ученице? Лаковый галстук-бабочка на эластичной резинке со значком и очки дополняют комплект. Предложите партнеру сыграть в увлекательную эротическую игру. Пусть он научит вас основам любви, а потом проверит насколько хорошо урок усвоен. Костюм игривой школьницы-обольстительницы Satine SL.  Костюм игривой школьницы-обольстительницы Satine SL. Модель: candy-841070sl. Белье. Эротическое белье для женщин &gt; Игровые костюмы. Цвет: красный, синий, белый. Материал: 90% полиэстер, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сетчатый комбинезон без рукавов Chardonnay от Candy Girl. Дизайн модели подчеркивает щиколотки. Сдержанное плетение для ценителей лаконичной элегантности. Интимный доступ обеспечивает комфортное использование. Контактный комбинезон с необычным плетением и открытой стопой Chardonnay XXL.  Контактный комбинезон с необычным плетением и открытой стопой Chardonnay XXL. Модель: candy-843018xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Стандартный</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>90% полиэстер, 10% эластан</t>
+          <t>88% полиамид, 12% эластан</t>
         </is>
       </c>
       <c r="S94" t="inlineStr"/>
@@ -12365,7 +12439,7 @@
       <c r="AM94" t="inlineStr"/>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>топ, юбочка, пояс, стринги, галстук, значок, очки</t>
+          <t>комбинезон</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
@@ -12401,12 +12475,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с фантазийным</t>
+          <t>Комбинезон с имитацией чулочек с</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>id-21866-1299</t>
+          <t>id-21863-1299</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -12430,12 +12504,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21866/21866_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21866/21866_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21866/21866_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/21863/21863_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21863/21863_2_650.jpg</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон Cinnamon от Сandy Girl с цветочным узором. Широкие бретели, усиленные носочки и интимный доступ обеспечивают комфортное ношение и использование. Контактный комбинезон с фантазийным узором Cinnamon XXL.  Контактный комбинезон с фантазийным узором Cinnamon XXL. Модель: candy-843003xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Сетчатый комбинезон из топа и чулок Lexus от Candy Girl украшен роскошными ажурными вставками и кокетливым плетением в виде бантика сзади. Усиленные носочки чулок обеспечивают комфортное использование. Комбинезон с имитацией чулочек с кружевом и топа Lexus XXL.  Комбинезон с имитацией чулочек с кружевом и топа Lexus XXL. Модель: candy-843019xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -12529,12 +12603,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Сетчатый комбинезон с вырезом в</t>
+          <t>Бесшовный контактный комбинезон в</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>id-7660-1299</t>
+          <t>id-24702-1299</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -12558,17 +12632,17 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/7660/7660_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/7660/7660_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_2_650.jpg</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сексуальность - это искусство. Оно выражается в красоте тела, изгибах форм и, конечно, в грамотно подобранной одежде. К одному из видов такой одежды относятся костюмы-сетки. Представленный экземпляр - классический вариант, заслуживший признание благодаря ярко выраженному предназначению и отсутствию лишних элементов. Магический чёрный цвет визуально стройнит, а эластичная сеточка идеально подчёркивает обворожительность обнажённого тела. Приятный дополнительный нюанс - пикантный вырез в интимном месте. Он позволяет наслаждаться интимным процессом, не снимая костюм. Сетчатый комбинезон с вырезом в интимном месте.  Сетчатый комбинезон с вырезом в интимном месте. Модель: candy-843005slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный костюм с рукавами 3.4 из бесшовной сетки и стринг Caramel от Candy Girl открывает плечи, обнажает ключицы, эротично подчеркивает нижнюю часть груди и талию. Вырез в интимной зоне и усиленные носочки обеспечивают комфорт при использовании. Бесшовный контактный комбинезон в сеточку с открытыми плечами Caramel.  Бесшовный контактный комбинезон в сеточку с открытыми плечами Caramel. Модель: candy-843023slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
@@ -12583,7 +12657,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S96" t="inlineStr"/>
@@ -12621,7 +12695,7 @@
       <c r="AM96" t="inlineStr"/>
       <c r="AN96" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO96" t="inlineStr">
@@ -12641,57 +12715,49 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Комбинезоны эротик</t>
+          <t>Наборы игрушек для взрослых</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CANDY GIRL</t>
+          <t>Lasciva</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>для женщин</t>
+          <t>Белье</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Фантазийный комбинезон с разрезом в</t>
+          <t>Сетчатый комбинезон без интимного</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>id-10851-1299</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>44-46</t>
-        </is>
-      </c>
+          <t>id-24560-1299</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>99999</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>универсальный (42-46)</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/10851/10851_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10851/10851_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/10851/10851_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24560/24560_комбинезон_650.jpg</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ажурный костюм-сетка создан специально для того, чтобы возбуждать и доводить до экстаза своей притягательной сексапильностью. Он подчёркивает достоинства фигуры, делая её ещё соблазнительнее. Данный комбинезон декорирован цветочным ажурным узором, что делает акцент на чувственный характер образа. Глубокий вырез выделяет красоту груди. А пикантный вырез на интимном месте позволяет приступить к сексуальным играм, не снимая эротический наряд. Фантазийный комбинезон с разрезом в интимном месте.  Фантазийный комбинезон с разрезом в интимном месте. Модель: candy-843010slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный комбинезон из ажурной бесшовной сетки без интимного доступа Candy Girl Renee подчеркивает талию, выборочно открывает чувственные зоны на спине. Усиленные носочки обеспечивают комфорт при ношении. Сетчатый комбинезон без интимного доступа Ren&amp;#233.e.  Сетчатый комбинезон без интимного доступа Ren. Модель: candy-843025slb. CANDY GIRL. #233. Цвет: стандартный. Материал: 5 2 1 4 6 3. Бренд: Lasciva. </t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -12701,17 +12767,17 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>Высокое качество</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% эластан</t>
+          <t>5 2 1 4 6 3</t>
         </is>
       </c>
       <c r="S97" t="inlineStr"/>
@@ -12749,7 +12815,7 @@
       <c r="AM97" t="inlineStr"/>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>1 шт.</t>
+          <t>черный</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -12785,22 +12851,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией боди и чулок</t>
+          <t>Бесшовный контактный комбинезон с</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>id-25339-1299</t>
+          <t>id-24697-1299</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -12814,12 +12880,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/25339/25339_1_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24697/24697_5_650.jpg</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t xml:space="preserve">У костюма из боди с открытой спиной и чулок Candy Girl Tatiyannah весьма неординарный дизайн сочетания сеток разной плотности. Комбинезон с имитацией боди и чулок Tatiyannah.  Комбинезон с имитацией боди и чулок Tatiyannah. Модель: candy-843016slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 90% нейлон, 10% спандекс. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди Kasandrah от Candy Girl визуально вытягивает ноги и подчеркивает зону декольте. Вырез в интимной зоне, стринги и усиленные плотным плетением стопы чулок обеспечивают комфорт и эстетичность при использовании. Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL.  Бесшовный контактный комбинезон с имитацией чулок и боди Kasandrah XXL. Модель: candy-843027xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -12839,7 +12905,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>90% нейлон, 10% спандекс</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S98" t="inlineStr"/>
@@ -12877,7 +12943,7 @@
       <c r="AM98" t="inlineStr"/>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
@@ -12913,22 +12979,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Контактный комбинезон с необычным</t>
+          <t>Комбинезон с имитацией топа и чулок</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>id-21864-1299</t>
+          <t>id-24563-1299</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>50-56</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -12942,12 +13008,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21864/21864_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21864/21864_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21864/21864_3_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24563/24563_3_650.jpg</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон без рукавов Chardonnay от Candy Girl. Дизайн модели подчеркивает щиколотки. Сдержанное плетение для ценителей лаконичной элегантности. Интимный доступ обеспечивает комфортное использование. Контактный комбинезон с необычным плетением и открытой стопой Chardonnay XXL.  Контактный комбинезон с необычным плетением и открытой стопой Chardonnay XXL. Модель: candy-843018xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный костюм-сетка из топа с короткими рукавами и чулок Baby от Candy Girl. Сочетание ажурного и геометрического рисунков плетения притягивает взгляд. Стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Комбинезон с имитацией топа и чулок Baby XXL.  Комбинезон с имитацией топа и чулок Baby XXL. Модель: candy-843030xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -12967,7 +13033,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S99" t="inlineStr"/>
@@ -13005,7 +13071,7 @@
       <c r="AM99" t="inlineStr"/>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
@@ -13041,22 +13107,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Комбинезон с имитацией чулочек с</t>
+          <t>Бесшовный контактный комбинезон с</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>id-21863-1299</t>
+          <t>id-24698-1299</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>50-56</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -13070,17 +13136,17 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/21863/21863_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/21863/21863_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24698/24698_2_650.jpg</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сетчатый комбинезон из топа и чулок Lexus от Candy Girl украшен роскошными ажурными вставками и кокетливым плетением в виде бантика сзади. Усиленные носочки чулок обеспечивают комфортное использование. Комбинезон с имитацией чулочек с кружевом и топа Lexus XXL.  Комбинезон с имитацией чулочек с кружевом и топа Lexus XXL. Модель: candy-843019xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 88% полиамид, 12% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный сетчатый комбинезон с длинными рукавами Jewelle от Candy Girl равномерно украшен россыпью радужных страз, мерцающих в полумраке, от рукавов до лодыжек. Классическое сеточное плетение  всегда беспроигрышный выбор. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт при использовании. Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL.  Бесшовный контактный комбинезон с открытыми плечами и россыпью страз Jewelle XXL. Модель: candy-843031xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Россия</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
@@ -13095,7 +13161,7 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>88% полиамид, 12% эластан</t>
+          <t>92% нейлон, 8% эластан</t>
         </is>
       </c>
       <c r="S100" t="inlineStr"/>
@@ -13133,7 +13199,7 @@
       <c r="AM100" t="inlineStr"/>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>комбинезон</t>
+          <t>комбинезон, стринги</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
@@ -13169,22 +13235,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Бесшовный контактный комбинезон в</t>
+          <t>Контактный эластичный комбинезон со</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>id-24702-1299</t>
+          <t>id-24559-1299</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>1XL</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>44-46</t>
+          <t>52-54</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -13198,17 +13264,17 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_6_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_1_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24702/24702_2_650.jpg</t>
+          <t>http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_4_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_5_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_2_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_3_650.jpg; http://sexoptovik.ru/_project/user_images/prods_res/24559/24559_1_650.jpg</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Эластичный костюм с рукавами 3.4 из бесшовной сетки и стринг Caramel от Candy Girl открывает плечи, обнажает ключицы, эротично подчеркивает нижнюю часть груди и талию. Вырез в интимной зоне и усиленные носочки обеспечивают комфорт при использовании. Бесшовный контактный комбинезон в сеточку с открытыми плечами Caramel.  Бесшовный контактный комбинезон в сеточку с открытыми плечами Caramel. Модель: candy-843023slb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
+          <t xml:space="preserve">Эластичный бесшовный комбинезон из сетки c имитацией боди и чулок Candy Girl Angelle спереди равномерно украшен россыпью серебристых страз в зоне груди и талии. Вырез в интимной зоне, стринги и усиленные мыски чулок обеспечивают комфорт и эстетичность при использовании. Контактный эластичный комбинезон со стразами Angelle XXL.  Контактный эластичный комбинезон со стразами Angelle XXL. Модель: candy-843032xxlb. Белье. Эротическое белье для женщин &gt; Комбинезоны. Эротическое белье для женщин &gt; Белье большого размера. Цвет: черный. Материал: 92% нейлон, 8% эластан. Батареек нет в комплекте. Бренд: CANDY GIRL. </t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Россия</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
